--- a/Raw Data/DENU_2022_phenology.xlsx
+++ b/Raw Data/DENU_2022_phenology.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCC computer transfer July 2024\ROA climate project\files for GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTREB\LTREB_Phenology_Demography\Pheno_Demo\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0A5EB3-01D1-432C-A216-7BE4F9D88F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8BE78-6ACA-4F9A-A8F3-415FCB358FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenology" sheetId="7" r:id="rId1"/>
     <sheet name="metadata" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -806,9 +818,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +858,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -952,7 +964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1094,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1108,26 +1120,26 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08203125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="23" customWidth="1"/>
     <col min="15" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
@@ -1172,7 +1184,7 @@
       </c>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>44720</v>
       </c>
@@ -1217,7 +1229,7 @@
       </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>44720</v>
       </c>
@@ -1262,7 +1274,7 @@
       </c>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>44720</v>
       </c>
@@ -1307,7 +1319,7 @@
       </c>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>44720</v>
       </c>
@@ -1352,7 +1364,7 @@
       </c>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>44720</v>
       </c>
@@ -1397,7 +1409,7 @@
       </c>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>44720</v>
       </c>
@@ -1442,7 +1454,7 @@
       </c>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>44720</v>
       </c>
@@ -1487,7 +1499,7 @@
       </c>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>44720</v>
       </c>
@@ -1532,7 +1544,7 @@
       </c>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>44720</v>
       </c>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44720</v>
       </c>
@@ -1622,7 +1634,7 @@
       </c>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>44720</v>
       </c>
@@ -1667,7 +1679,7 @@
       </c>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>44720</v>
       </c>
@@ -1712,7 +1724,7 @@
       </c>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>44720</v>
       </c>
@@ -1757,7 +1769,7 @@
       </c>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>44720</v>
       </c>
@@ -1802,7 +1814,7 @@
       </c>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>44720</v>
       </c>
@@ -1847,7 +1859,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>44720</v>
       </c>
@@ -1892,7 +1904,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>44720</v>
       </c>
@@ -1937,7 +1949,7 @@
       </c>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>44720</v>
       </c>
@@ -1982,7 +1994,7 @@
       </c>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>44720</v>
       </c>
@@ -2027,7 +2039,7 @@
       </c>
       <c r="O20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>44720</v>
       </c>
@@ -2072,7 +2084,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>44720</v>
       </c>
@@ -2117,7 +2129,7 @@
       </c>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>44720</v>
       </c>
@@ -2162,7 +2174,7 @@
       </c>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>44720</v>
       </c>
@@ -2207,7 +2219,7 @@
       </c>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44720</v>
       </c>
@@ -2252,7 +2264,7 @@
       </c>
       <c r="O25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44720</v>
       </c>
@@ -2297,7 +2309,7 @@
       </c>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44720</v>
       </c>
@@ -2342,7 +2354,7 @@
       </c>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>44720</v>
       </c>
@@ -2387,7 +2399,7 @@
       </c>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>44720</v>
       </c>
@@ -2432,7 +2444,7 @@
       </c>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44720</v>
       </c>
@@ -2477,7 +2489,7 @@
       </c>
       <c r="O30" s="19"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>44720</v>
       </c>
@@ -2522,7 +2534,7 @@
       </c>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>44720</v>
       </c>
@@ -2567,7 +2579,7 @@
       </c>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>44720</v>
       </c>
@@ -2612,7 +2624,7 @@
       </c>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>44720</v>
       </c>
@@ -2657,7 +2669,7 @@
       </c>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>44720</v>
       </c>
@@ -2702,7 +2714,7 @@
       </c>
       <c r="O35" s="19"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>44720</v>
       </c>
@@ -2747,7 +2759,7 @@
       </c>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>44720</v>
       </c>
@@ -2792,7 +2804,7 @@
       </c>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>44720</v>
       </c>
@@ -2837,7 +2849,7 @@
       </c>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>44720</v>
       </c>
@@ -2882,7 +2894,7 @@
       </c>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>44720</v>
       </c>
@@ -2927,7 +2939,7 @@
       </c>
       <c r="O40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>44720</v>
       </c>
@@ -2972,7 +2984,7 @@
       </c>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>44720</v>
       </c>
@@ -3017,7 +3029,7 @@
       </c>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>44720</v>
       </c>
@@ -3062,7 +3074,7 @@
       </c>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>44720</v>
       </c>
@@ -3107,7 +3119,7 @@
       </c>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>44721</v>
       </c>
@@ -3152,7 +3164,7 @@
       </c>
       <c r="O45" s="19"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44722</v>
       </c>
@@ -3197,7 +3209,7 @@
       </c>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>44722</v>
       </c>
@@ -3242,7 +3254,7 @@
       </c>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>44722</v>
       </c>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>44722</v>
       </c>
@@ -3332,7 +3344,7 @@
       </c>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>44722</v>
       </c>
@@ -3377,7 +3389,7 @@
       </c>
       <c r="O50" s="19"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>44722</v>
       </c>
@@ -3422,7 +3434,7 @@
       </c>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>44722</v>
       </c>
@@ -3467,7 +3479,7 @@
       </c>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>44722</v>
       </c>
@@ -3512,7 +3524,7 @@
       </c>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>44722</v>
       </c>
@@ -3557,7 +3569,7 @@
       </c>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>44722</v>
       </c>
@@ -3602,7 +3614,7 @@
       </c>
       <c r="O55" s="19"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>44722</v>
       </c>
@@ -3647,7 +3659,7 @@
       </c>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>44722</v>
       </c>
@@ -3692,7 +3704,7 @@
       </c>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>44722</v>
       </c>
@@ -3737,7 +3749,7 @@
       </c>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>44722</v>
       </c>
@@ -3782,7 +3794,7 @@
       </c>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>44722</v>
       </c>
@@ -3827,7 +3839,7 @@
       </c>
       <c r="O60" s="19"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>44722</v>
       </c>
@@ -3872,7 +3884,7 @@
       </c>
       <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>44722</v>
       </c>
@@ -3917,7 +3929,7 @@
       </c>
       <c r="O62" s="19"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>44722</v>
       </c>
@@ -3962,7 +3974,7 @@
       </c>
       <c r="O63" s="19"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>44722</v>
       </c>
@@ -4007,7 +4019,7 @@
       </c>
       <c r="O64" s="19"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>44722</v>
       </c>
@@ -4052,7 +4064,7 @@
       </c>
       <c r="O65" s="19"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>44722</v>
       </c>
@@ -4097,7 +4109,7 @@
       </c>
       <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>44722</v>
       </c>
@@ -4142,7 +4154,7 @@
       </c>
       <c r="O67" s="19"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>44722</v>
       </c>
@@ -4187,7 +4199,7 @@
       </c>
       <c r="O68" s="19"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>44722</v>
       </c>
@@ -4232,7 +4244,7 @@
       </c>
       <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>44722</v>
       </c>
@@ -4277,7 +4289,7 @@
       </c>
       <c r="O70" s="19"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>44722</v>
       </c>
@@ -4322,7 +4334,7 @@
       </c>
       <c r="O71" s="19"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>44722</v>
       </c>
@@ -4367,7 +4379,7 @@
       </c>
       <c r="O72" s="19"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>44722</v>
       </c>
@@ -4412,7 +4424,7 @@
       </c>
       <c r="O73" s="19"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>44722</v>
       </c>
@@ -4457,7 +4469,7 @@
       </c>
       <c r="O74" s="19"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>44722</v>
       </c>
@@ -4502,7 +4514,7 @@
       </c>
       <c r="O75" s="19"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>44722</v>
       </c>
@@ -4547,7 +4559,7 @@
       </c>
       <c r="O76" s="19"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>44722</v>
       </c>
@@ -4592,7 +4604,7 @@
       </c>
       <c r="O77" s="19"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>44722</v>
       </c>
@@ -4637,7 +4649,7 @@
       </c>
       <c r="O78" s="19"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>44722</v>
       </c>
@@ -4682,7 +4694,7 @@
       </c>
       <c r="O79" s="19"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>44722</v>
       </c>
@@ -4727,7 +4739,7 @@
       </c>
       <c r="O80" s="19"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>44722</v>
       </c>
@@ -4772,7 +4784,7 @@
       </c>
       <c r="O81" s="19"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>44722</v>
       </c>
@@ -4817,7 +4829,7 @@
       </c>
       <c r="O82" s="19"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>44722</v>
       </c>
@@ -4862,7 +4874,7 @@
       </c>
       <c r="O83" s="19"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>44722</v>
       </c>
@@ -4907,7 +4919,7 @@
       </c>
       <c r="O84" s="19"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>44722</v>
       </c>
@@ -4952,7 +4964,7 @@
       </c>
       <c r="O85" s="19"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>44722</v>
       </c>
@@ -4997,7 +5009,7 @@
       </c>
       <c r="O86" s="19"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>44722</v>
       </c>
@@ -5042,7 +5054,7 @@
       </c>
       <c r="O87" s="19"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>44722</v>
       </c>
@@ -5087,7 +5099,7 @@
       </c>
       <c r="O88" s="19"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>44722</v>
       </c>
@@ -5132,7 +5144,7 @@
       </c>
       <c r="O89" s="19"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>44722</v>
       </c>
@@ -5177,7 +5189,7 @@
       </c>
       <c r="O90" s="19"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>44722</v>
       </c>
@@ -5222,7 +5234,7 @@
       </c>
       <c r="O91" s="19"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>44722</v>
       </c>
@@ -5267,7 +5279,7 @@
       </c>
       <c r="O92" s="19"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>44722</v>
       </c>
@@ -5312,7 +5324,7 @@
       </c>
       <c r="O93" s="19"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>44722</v>
       </c>
@@ -5357,7 +5369,7 @@
       </c>
       <c r="O94" s="19"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>44725</v>
       </c>
@@ -5402,7 +5414,7 @@
       </c>
       <c r="O95" s="19"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>44725</v>
       </c>
@@ -5447,7 +5459,7 @@
       </c>
       <c r="O96" s="19"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>44725</v>
       </c>
@@ -5492,7 +5504,7 @@
       </c>
       <c r="O97" s="19"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>44725</v>
       </c>
@@ -5537,7 +5549,7 @@
       </c>
       <c r="O98" s="19"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>44725</v>
       </c>
@@ -5582,7 +5594,7 @@
       </c>
       <c r="O99" s="19"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>44725</v>
       </c>
@@ -5627,7 +5639,7 @@
       </c>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>44725</v>
       </c>
@@ -5672,7 +5684,7 @@
       </c>
       <c r="O101" s="19"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>44725</v>
       </c>
@@ -5717,7 +5729,7 @@
       </c>
       <c r="O102" s="19"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>44725</v>
       </c>
@@ -5762,7 +5774,7 @@
       </c>
       <c r="O103" s="19"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>44725</v>
       </c>
@@ -5807,7 +5819,7 @@
       </c>
       <c r="O104" s="19"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>44725</v>
       </c>
@@ -5852,7 +5864,7 @@
       </c>
       <c r="O105" s="19"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>44725</v>
       </c>
@@ -5897,7 +5909,7 @@
       </c>
       <c r="O106" s="19"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>44725</v>
       </c>
@@ -5942,7 +5954,7 @@
       </c>
       <c r="O107" s="19"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>44725</v>
       </c>
@@ -5987,7 +5999,7 @@
       </c>
       <c r="O108" s="19"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>44725</v>
       </c>
@@ -6032,7 +6044,7 @@
       </c>
       <c r="O109" s="19"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>44725</v>
       </c>
@@ -6077,7 +6089,7 @@
       </c>
       <c r="O110" s="19"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>44725</v>
       </c>
@@ -6122,7 +6134,7 @@
       </c>
       <c r="O111" s="19"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>44725</v>
       </c>
@@ -6167,7 +6179,7 @@
       </c>
       <c r="O112" s="19"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>44725</v>
       </c>
@@ -6212,7 +6224,7 @@
       </c>
       <c r="O113" s="19"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>44725</v>
       </c>
@@ -6257,7 +6269,7 @@
       </c>
       <c r="O114" s="19"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>44725</v>
       </c>
@@ -6302,7 +6314,7 @@
       </c>
       <c r="O115" s="19"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>44725</v>
       </c>
@@ -6347,7 +6359,7 @@
       </c>
       <c r="O116" s="19"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>44725</v>
       </c>
@@ -6392,7 +6404,7 @@
       </c>
       <c r="O117" s="19"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>44725</v>
       </c>
@@ -6437,7 +6449,7 @@
       </c>
       <c r="O118" s="19"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>44725</v>
       </c>
@@ -6482,7 +6494,7 @@
       </c>
       <c r="O119" s="19"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>44725</v>
       </c>
@@ -6527,7 +6539,7 @@
       </c>
       <c r="O120" s="19"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>44725</v>
       </c>
@@ -6572,7 +6584,7 @@
       </c>
       <c r="O121" s="19"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>44725</v>
       </c>
@@ -6617,7 +6629,7 @@
       </c>
       <c r="O122" s="19"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>44725</v>
       </c>
@@ -6662,7 +6674,7 @@
       </c>
       <c r="O123" s="19"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>44725</v>
       </c>
@@ -6707,7 +6719,7 @@
       </c>
       <c r="O124" s="19"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>44725</v>
       </c>
@@ -6752,7 +6764,7 @@
       </c>
       <c r="O125" s="19"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>44725</v>
       </c>
@@ -6797,7 +6809,7 @@
       </c>
       <c r="O126" s="19"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>44725</v>
       </c>
@@ -6842,7 +6854,7 @@
       </c>
       <c r="O127" s="19"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>44725</v>
       </c>
@@ -6887,7 +6899,7 @@
       </c>
       <c r="O128" s="19"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>44725</v>
       </c>
@@ -6932,7 +6944,7 @@
       </c>
       <c r="O129" s="19"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>44725</v>
       </c>
@@ -6977,7 +6989,7 @@
       </c>
       <c r="O130" s="19"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>44725</v>
       </c>
@@ -7022,7 +7034,7 @@
       </c>
       <c r="O131" s="19"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>44725</v>
       </c>
@@ -7067,7 +7079,7 @@
       </c>
       <c r="O132" s="19"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>44725</v>
       </c>
@@ -7112,7 +7124,7 @@
       </c>
       <c r="O133" s="19"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>44725</v>
       </c>
@@ -7157,7 +7169,7 @@
       </c>
       <c r="O134" s="19"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <v>44725</v>
       </c>
@@ -7202,7 +7214,7 @@
       </c>
       <c r="O135" s="19"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <v>44725</v>
       </c>
@@ -7247,7 +7259,7 @@
       </c>
       <c r="O136" s="19"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>44725</v>
       </c>
@@ -7292,7 +7304,7 @@
       </c>
       <c r="O137" s="19"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <v>44725</v>
       </c>
@@ -7337,7 +7349,7 @@
       </c>
       <c r="O138" s="19"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>44725</v>
       </c>
@@ -7382,7 +7394,7 @@
       </c>
       <c r="O139" s="19"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>44725</v>
       </c>
@@ -7427,7 +7439,7 @@
       </c>
       <c r="O140" s="19"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
         <v>44725</v>
       </c>
@@ -7472,7 +7484,7 @@
       </c>
       <c r="O141" s="19"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <v>44725</v>
       </c>
@@ -7517,7 +7529,7 @@
       </c>
       <c r="O142" s="19"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <v>44725</v>
       </c>
@@ -7562,7 +7574,7 @@
       </c>
       <c r="O143" s="19"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="22">
         <v>44727</v>
       </c>
@@ -7607,7 +7619,7 @@
       </c>
       <c r="O144" s="19"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
         <v>44727</v>
       </c>
@@ -7652,7 +7664,7 @@
       </c>
       <c r="O145" s="19"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="22">
         <v>44727</v>
       </c>
@@ -7697,7 +7709,7 @@
       </c>
       <c r="O146" s="19"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="22">
         <v>44727</v>
       </c>
@@ -7742,7 +7754,7 @@
       </c>
       <c r="O147" s="19"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="22">
         <v>44727</v>
       </c>
@@ -7787,7 +7799,7 @@
       </c>
       <c r="O148" s="19"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="22">
         <v>44727</v>
       </c>
@@ -7832,7 +7844,7 @@
       </c>
       <c r="O149" s="19"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="22">
         <v>44727</v>
       </c>
@@ -7877,7 +7889,7 @@
       </c>
       <c r="O150" s="19"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
         <v>44727</v>
       </c>
@@ -7922,7 +7934,7 @@
       </c>
       <c r="O151" s="19"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <v>44727</v>
       </c>
@@ -7967,7 +7979,7 @@
       </c>
       <c r="O152" s="19"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="22">
         <v>44727</v>
       </c>
@@ -8012,7 +8024,7 @@
       </c>
       <c r="O153" s="19"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <v>44727</v>
       </c>
@@ -8057,7 +8069,7 @@
       </c>
       <c r="O154" s="19"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <v>44727</v>
       </c>
@@ -8102,7 +8114,7 @@
       </c>
       <c r="O155" s="19"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="22">
         <v>44727</v>
       </c>
@@ -8147,7 +8159,7 @@
       </c>
       <c r="O156" s="19"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="22">
         <v>44727</v>
       </c>
@@ -8192,7 +8204,7 @@
       </c>
       <c r="O157" s="19"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="22">
         <v>44727</v>
       </c>
@@ -8237,7 +8249,7 @@
       </c>
       <c r="O158" s="19"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="22">
         <v>44727</v>
       </c>
@@ -8282,7 +8294,7 @@
       </c>
       <c r="O159" s="19"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="22">
         <v>44727</v>
       </c>
@@ -8327,7 +8339,7 @@
       </c>
       <c r="O160" s="19"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="22">
         <v>44727</v>
       </c>
@@ -8372,7 +8384,7 @@
       </c>
       <c r="O161" s="19"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
         <v>44727</v>
       </c>
@@ -8417,7 +8429,7 @@
       </c>
       <c r="O162" s="19"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>44727</v>
       </c>
@@ -8462,7 +8474,7 @@
       </c>
       <c r="O163" s="19"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <v>44727</v>
       </c>
@@ -8507,7 +8519,7 @@
       </c>
       <c r="O164" s="19"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="22">
         <v>44727</v>
       </c>
@@ -8552,7 +8564,7 @@
       </c>
       <c r="O165" s="19"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>44727</v>
       </c>
@@ -8597,7 +8609,7 @@
       </c>
       <c r="O166" s="19"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <v>44727</v>
       </c>
@@ -8642,7 +8654,7 @@
       </c>
       <c r="O167" s="19"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>44727</v>
       </c>
@@ -8687,7 +8699,7 @@
       </c>
       <c r="O168" s="19"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="22">
         <v>44727</v>
       </c>
@@ -8732,7 +8744,7 @@
       </c>
       <c r="O169" s="19"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
         <v>44727</v>
       </c>
@@ -8777,7 +8789,7 @@
       </c>
       <c r="O170" s="19"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <v>44727</v>
       </c>
@@ -8822,7 +8834,7 @@
       </c>
       <c r="O171" s="19"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>44727</v>
       </c>
@@ -8867,7 +8879,7 @@
       </c>
       <c r="O172" s="19"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="22">
         <v>44727</v>
       </c>
@@ -8912,7 +8924,7 @@
       </c>
       <c r="O173" s="19"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <v>44727</v>
       </c>
@@ -8957,7 +8969,7 @@
       </c>
       <c r="O174" s="19"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <v>44727</v>
       </c>
@@ -9002,7 +9014,7 @@
       </c>
       <c r="O175" s="19"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <v>44727</v>
       </c>
@@ -9047,7 +9059,7 @@
       </c>
       <c r="O176" s="19"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <v>44727</v>
       </c>
@@ -9092,7 +9104,7 @@
       </c>
       <c r="O177" s="19"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>44727</v>
       </c>
@@ -9137,7 +9149,7 @@
       </c>
       <c r="O178" s="19"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <v>44727</v>
       </c>
@@ -9182,7 +9194,7 @@
       </c>
       <c r="O179" s="19"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
         <v>44727</v>
       </c>
@@ -9227,7 +9239,7 @@
       </c>
       <c r="O180" s="19"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="22">
         <v>44727</v>
       </c>
@@ -9272,7 +9284,7 @@
       </c>
       <c r="O181" s="19"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="22">
         <v>44727</v>
       </c>
@@ -9317,7 +9329,7 @@
       </c>
       <c r="O182" s="19"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <v>44727</v>
       </c>
@@ -9362,7 +9374,7 @@
       </c>
       <c r="O183" s="19"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="22">
         <v>44727</v>
       </c>
@@ -9407,7 +9419,7 @@
       </c>
       <c r="O184" s="19"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="22">
         <v>44727</v>
       </c>
@@ -9452,7 +9464,7 @@
       </c>
       <c r="O185" s="19"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <v>44727</v>
       </c>
@@ -9497,7 +9509,7 @@
       </c>
       <c r="O186" s="19"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="22">
         <v>44727</v>
       </c>
@@ -9542,7 +9554,7 @@
       </c>
       <c r="O187" s="19"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="22">
         <v>44727</v>
       </c>
@@ -9587,7 +9599,7 @@
       </c>
       <c r="O188" s="19"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="22">
         <v>44727</v>
       </c>
@@ -9632,7 +9644,7 @@
       </c>
       <c r="O189" s="19"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="22">
         <v>44727</v>
       </c>
@@ -9677,7 +9689,7 @@
       </c>
       <c r="O190" s="19"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="22">
         <v>44727</v>
       </c>
@@ -9722,7 +9734,7 @@
       </c>
       <c r="O191" s="19"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
         <v>44727</v>
       </c>
@@ -9767,7 +9779,7 @@
       </c>
       <c r="O192" s="19"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="22">
         <v>44729</v>
       </c>
@@ -9812,7 +9824,7 @@
       </c>
       <c r="O193" s="19"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="22">
         <v>44729</v>
       </c>
@@ -9857,7 +9869,7 @@
       </c>
       <c r="O194" s="19"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
         <v>44729</v>
       </c>
@@ -9902,7 +9914,7 @@
       </c>
       <c r="O195" s="19"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
         <v>44729</v>
       </c>
@@ -9947,7 +9959,7 @@
       </c>
       <c r="O196" s="19"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="22">
         <v>44729</v>
       </c>
@@ -9992,7 +10004,7 @@
       </c>
       <c r="O197" s="19"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="22">
         <v>44729</v>
       </c>
@@ -10037,7 +10049,7 @@
       </c>
       <c r="O198" s="19"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <v>44729</v>
       </c>
@@ -10082,7 +10094,7 @@
       </c>
       <c r="O199" s="19"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="22">
         <v>44729</v>
       </c>
@@ -10127,7 +10139,7 @@
       </c>
       <c r="O200" s="19"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="22">
         <v>44729</v>
       </c>
@@ -10172,7 +10184,7 @@
       </c>
       <c r="O201" s="19"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="22">
         <v>44729</v>
       </c>
@@ -10217,7 +10229,7 @@
       </c>
       <c r="O202" s="19"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="22">
         <v>44729</v>
       </c>
@@ -10262,7 +10274,7 @@
       </c>
       <c r="O203" s="19"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="22">
         <v>44729</v>
       </c>
@@ -10307,7 +10319,7 @@
       </c>
       <c r="O204" s="19"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="22">
         <v>44729</v>
       </c>
@@ -10352,7 +10364,7 @@
       </c>
       <c r="O205" s="19"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="22">
         <v>44729</v>
       </c>
@@ -10397,7 +10409,7 @@
       </c>
       <c r="O206" s="19"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="22">
         <v>44729</v>
       </c>
@@ -10442,7 +10454,7 @@
       </c>
       <c r="O207" s="19"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="22">
         <v>44729</v>
       </c>
@@ -10487,7 +10499,7 @@
       </c>
       <c r="O208" s="19"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="22">
         <v>44729</v>
       </c>
@@ -10532,7 +10544,7 @@
       </c>
       <c r="O209" s="19"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="22">
         <v>44729</v>
       </c>
@@ -10577,7 +10589,7 @@
       </c>
       <c r="O210" s="19"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="22">
         <v>44729</v>
       </c>
@@ -10622,7 +10634,7 @@
       </c>
       <c r="O211" s="19"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="22">
         <v>44729</v>
       </c>
@@ -10667,7 +10679,7 @@
       </c>
       <c r="O212" s="19"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="22">
         <v>44729</v>
       </c>
@@ -10712,7 +10724,7 @@
       </c>
       <c r="O213" s="19"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="22">
         <v>44729</v>
       </c>
@@ -10757,7 +10769,7 @@
       </c>
       <c r="O214" s="19"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="22">
         <v>44729</v>
       </c>
@@ -10802,7 +10814,7 @@
       </c>
       <c r="O215" s="19"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>44729</v>
       </c>
@@ -10847,7 +10859,7 @@
       </c>
       <c r="O216" s="19"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="22">
         <v>44729</v>
       </c>
@@ -10892,7 +10904,7 @@
       </c>
       <c r="O217" s="19"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="22">
         <v>44729</v>
       </c>
@@ -10937,7 +10949,7 @@
       </c>
       <c r="O218" s="19"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>44729</v>
       </c>
@@ -10982,7 +10994,7 @@
       </c>
       <c r="O219" s="19"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="22">
         <v>44729</v>
       </c>
@@ -11027,7 +11039,7 @@
       </c>
       <c r="O220" s="19"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="22">
         <v>44729</v>
       </c>
@@ -11072,7 +11084,7 @@
       </c>
       <c r="O221" s="19"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="22">
         <v>44729</v>
       </c>
@@ -11117,7 +11129,7 @@
       </c>
       <c r="O222" s="19"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="22">
         <v>44729</v>
       </c>
@@ -11162,7 +11174,7 @@
       </c>
       <c r="O223" s="19"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="22">
         <v>44729</v>
       </c>
@@ -11207,7 +11219,7 @@
       </c>
       <c r="O224" s="19"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="22">
         <v>44729</v>
       </c>
@@ -11252,7 +11264,7 @@
       </c>
       <c r="O225" s="19"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="22">
         <v>44729</v>
       </c>
@@ -11297,7 +11309,7 @@
       </c>
       <c r="O226" s="19"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="22">
         <v>44729</v>
       </c>
@@ -11342,7 +11354,7 @@
       </c>
       <c r="O227" s="19"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="22">
         <v>44729</v>
       </c>
@@ -11387,7 +11399,7 @@
       </c>
       <c r="O228" s="19"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="22">
         <v>44729</v>
       </c>
@@ -11432,7 +11444,7 @@
       </c>
       <c r="O229" s="19"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="22">
         <v>44729</v>
       </c>
@@ -11477,7 +11489,7 @@
       </c>
       <c r="O230" s="19"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="22">
         <v>44729</v>
       </c>
@@ -11522,7 +11534,7 @@
       </c>
       <c r="O231" s="19"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="22">
         <v>44729</v>
       </c>
@@ -11567,7 +11579,7 @@
       </c>
       <c r="O232" s="19"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="22">
         <v>44729</v>
       </c>
@@ -11612,7 +11624,7 @@
       </c>
       <c r="O233" s="19"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <v>44729</v>
       </c>
@@ -11657,7 +11669,7 @@
       </c>
       <c r="O234" s="19"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="22">
         <v>44729</v>
       </c>
@@ -11702,7 +11714,7 @@
       </c>
       <c r="O235" s="19"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="22">
         <v>44729</v>
       </c>
@@ -11747,7 +11759,7 @@
       </c>
       <c r="O236" s="19"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="22">
         <v>44729</v>
       </c>
@@ -11792,7 +11804,7 @@
       </c>
       <c r="O237" s="19"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="22">
         <v>44729</v>
       </c>
@@ -11837,7 +11849,7 @@
       </c>
       <c r="O238" s="19"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="22">
         <v>44729</v>
       </c>
@@ -11882,7 +11894,7 @@
       </c>
       <c r="O239" s="19"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="22">
         <v>44729</v>
       </c>
@@ -11927,7 +11939,7 @@
       </c>
       <c r="O240" s="19"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="22">
         <v>44729</v>
       </c>
@@ -11972,7 +11984,7 @@
       </c>
       <c r="O241" s="19"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="22">
         <v>44732</v>
       </c>
@@ -12017,7 +12029,7 @@
       </c>
       <c r="O242" s="19"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="22">
         <v>44732</v>
       </c>
@@ -12062,7 +12074,7 @@
       </c>
       <c r="O243" s="19"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="22">
         <v>44732</v>
       </c>
@@ -12107,7 +12119,7 @@
       </c>
       <c r="O244" s="19"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="22">
         <v>44732</v>
       </c>
@@ -12152,7 +12164,7 @@
       </c>
       <c r="O245" s="19"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="22">
         <v>44732</v>
       </c>
@@ -12197,7 +12209,7 @@
       </c>
       <c r="O246" s="19"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="22">
         <v>44732</v>
       </c>
@@ -12242,7 +12254,7 @@
       </c>
       <c r="O247" s="19"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="22">
         <v>44732</v>
       </c>
@@ -12287,7 +12299,7 @@
       </c>
       <c r="O248" s="19"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="22">
         <v>44732</v>
       </c>
@@ -12332,7 +12344,7 @@
       </c>
       <c r="O249" s="19"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <v>44732</v>
       </c>
@@ -12377,7 +12389,7 @@
       </c>
       <c r="O250" s="19"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="22">
         <v>44732</v>
       </c>
@@ -12422,7 +12434,7 @@
       </c>
       <c r="O251" s="19"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="22">
         <v>44732</v>
       </c>
@@ -12467,7 +12479,7 @@
       </c>
       <c r="O252" s="19"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="22">
         <v>44732</v>
       </c>
@@ -12512,7 +12524,7 @@
       </c>
       <c r="O253" s="19"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <v>44732</v>
       </c>
@@ -12557,7 +12569,7 @@
       </c>
       <c r="O254" s="19"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="22">
         <v>44732</v>
       </c>
@@ -12602,7 +12614,7 @@
       </c>
       <c r="O255" s="19"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="22">
         <v>44732</v>
       </c>
@@ -12647,7 +12659,7 @@
       </c>
       <c r="O256" s="19"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="22">
         <v>44732</v>
       </c>
@@ -12692,7 +12704,7 @@
       </c>
       <c r="O257" s="19"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="22">
         <v>44732</v>
       </c>
@@ -12737,7 +12749,7 @@
       </c>
       <c r="O258" s="19"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="22">
         <v>44732</v>
       </c>
@@ -12782,7 +12794,7 @@
       </c>
       <c r="O259" s="19"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="22">
         <v>44732</v>
       </c>
@@ -12827,7 +12839,7 @@
       </c>
       <c r="O260" s="19"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="22">
         <v>44732</v>
       </c>
@@ -12872,7 +12884,7 @@
       </c>
       <c r="O261" s="19"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="22">
         <v>44732</v>
       </c>
@@ -12917,7 +12929,7 @@
       </c>
       <c r="O262" s="19"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="22">
         <v>44732</v>
       </c>
@@ -12962,7 +12974,7 @@
       </c>
       <c r="O263" s="19"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="22">
         <v>44732</v>
       </c>
@@ -13007,7 +13019,7 @@
       </c>
       <c r="O264" s="19"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="22">
         <v>44732</v>
       </c>
@@ -13052,7 +13064,7 @@
       </c>
       <c r="O265" s="19"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="22">
         <v>44732</v>
       </c>
@@ -13097,7 +13109,7 @@
       </c>
       <c r="O266" s="19"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>44732</v>
       </c>
@@ -13142,7 +13154,7 @@
       </c>
       <c r="O267" s="19"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="22">
         <v>44732</v>
       </c>
@@ -13187,7 +13199,7 @@
       </c>
       <c r="O268" s="19"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="22">
         <v>44732</v>
       </c>
@@ -13232,7 +13244,7 @@
       </c>
       <c r="O269" s="19"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="22">
         <v>44732</v>
       </c>
@@ -13277,7 +13289,7 @@
       </c>
       <c r="O270" s="19"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="22">
         <v>44732</v>
       </c>
@@ -13322,7 +13334,7 @@
       </c>
       <c r="O271" s="19"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="22">
         <v>44732</v>
       </c>
@@ -13367,7 +13379,7 @@
       </c>
       <c r="O272" s="19"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="22">
         <v>44732</v>
       </c>
@@ -13412,7 +13424,7 @@
       </c>
       <c r="O273" s="19"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="22">
         <v>44732</v>
       </c>
@@ -13457,7 +13469,7 @@
       </c>
       <c r="O274" s="19"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="22">
         <v>44732</v>
       </c>
@@ -13502,7 +13514,7 @@
       </c>
       <c r="O275" s="19"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="22">
         <v>44732</v>
       </c>
@@ -13547,7 +13559,7 @@
       </c>
       <c r="O276" s="19"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="22">
         <v>44732</v>
       </c>
@@ -13592,7 +13604,7 @@
       </c>
       <c r="O277" s="19"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="22">
         <v>44732</v>
       </c>
@@ -13637,7 +13649,7 @@
       </c>
       <c r="O278" s="19"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="22">
         <v>44732</v>
       </c>
@@ -13682,7 +13694,7 @@
       </c>
       <c r="O279" s="19"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="22">
         <v>44732</v>
       </c>
@@ -13727,7 +13739,7 @@
       </c>
       <c r="O280" s="19"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="22">
         <v>44732</v>
       </c>
@@ -13772,7 +13784,7 @@
       </c>
       <c r="O281" s="19"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="22">
         <v>44732</v>
       </c>
@@ -13817,7 +13829,7 @@
       </c>
       <c r="O282" s="19"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="22">
         <v>44732</v>
       </c>
@@ -13862,7 +13874,7 @@
       </c>
       <c r="O283" s="19"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="22">
         <v>44732</v>
       </c>
@@ -13907,7 +13919,7 @@
       </c>
       <c r="O284" s="19"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="22">
         <v>44732</v>
       </c>
@@ -13952,7 +13964,7 @@
       </c>
       <c r="O285" s="19"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="22">
         <v>44732</v>
       </c>
@@ -13997,7 +14009,7 @@
       </c>
       <c r="O286" s="19"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="22">
         <v>44732</v>
       </c>
@@ -14042,7 +14054,7 @@
       </c>
       <c r="O287" s="19"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="22">
         <v>44732</v>
       </c>
@@ -14087,7 +14099,7 @@
       </c>
       <c r="O288" s="19"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="22">
         <v>44732</v>
       </c>
@@ -14132,7 +14144,7 @@
       </c>
       <c r="O289" s="19"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="22">
         <v>44732</v>
       </c>
@@ -14177,7 +14189,7 @@
       </c>
       <c r="O290" s="19"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="22">
         <v>44734</v>
       </c>
@@ -14222,7 +14234,7 @@
       </c>
       <c r="O291" s="19"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="22">
         <v>44734</v>
       </c>
@@ -14267,7 +14279,7 @@
       </c>
       <c r="O292" s="19"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="22">
         <v>44734</v>
       </c>
@@ -14312,7 +14324,7 @@
       </c>
       <c r="O293" s="19"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="22">
         <v>44734</v>
       </c>
@@ -14357,7 +14369,7 @@
       </c>
       <c r="O294" s="19"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="22">
         <v>44734</v>
       </c>
@@ -14402,7 +14414,7 @@
       </c>
       <c r="O295" s="19"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="22">
         <v>44734</v>
       </c>
@@ -14447,7 +14459,7 @@
       </c>
       <c r="O296" s="19"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="22">
         <v>44734</v>
       </c>
@@ -14492,7 +14504,7 @@
       </c>
       <c r="O297" s="19"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="22">
         <v>44734</v>
       </c>
@@ -14537,7 +14549,7 @@
       </c>
       <c r="O298" s="19"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="22">
         <v>44734</v>
       </c>
@@ -14582,7 +14594,7 @@
       </c>
       <c r="O299" s="19"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="22">
         <v>44734</v>
       </c>
@@ -14627,7 +14639,7 @@
       </c>
       <c r="O300" s="19"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="22">
         <v>44734</v>
       </c>
@@ -14672,7 +14684,7 @@
       </c>
       <c r="O301" s="19"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="22">
         <v>44734</v>
       </c>
@@ -14717,7 +14729,7 @@
       </c>
       <c r="O302" s="19"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="22">
         <v>44734</v>
       </c>
@@ -14762,7 +14774,7 @@
       </c>
       <c r="O303" s="19"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="22">
         <v>44734</v>
       </c>
@@ -14807,7 +14819,7 @@
       </c>
       <c r="O304" s="19"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="22">
         <v>44734</v>
       </c>
@@ -14852,7 +14864,7 @@
       </c>
       <c r="O305" s="19"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="22">
         <v>44734</v>
       </c>
@@ -14897,7 +14909,7 @@
       </c>
       <c r="O306" s="19"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="22">
         <v>44734</v>
       </c>
@@ -14942,7 +14954,7 @@
       </c>
       <c r="O307" s="19"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="22">
         <v>44734</v>
       </c>
@@ -14987,7 +14999,7 @@
       </c>
       <c r="O308" s="19"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="22">
         <v>44734</v>
       </c>
@@ -15032,7 +15044,7 @@
       </c>
       <c r="O309" s="19"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="22">
         <v>44734</v>
       </c>
@@ -15077,7 +15089,7 @@
       </c>
       <c r="O310" s="19"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="22">
         <v>44734</v>
       </c>
@@ -15122,7 +15134,7 @@
       </c>
       <c r="O311" s="19"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="22">
         <v>44734</v>
       </c>
@@ -15165,7 +15177,7 @@
       </c>
       <c r="O312" s="19"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="22">
         <v>44734</v>
       </c>
@@ -15210,7 +15222,7 @@
       </c>
       <c r="O313" s="19"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="22">
         <v>44734</v>
       </c>
@@ -15255,7 +15267,7 @@
       </c>
       <c r="O314" s="19"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="22">
         <v>44734</v>
       </c>
@@ -15300,7 +15312,7 @@
       </c>
       <c r="O315" s="19"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="22">
         <v>44734</v>
       </c>
@@ -15345,7 +15357,7 @@
       </c>
       <c r="O316" s="19"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="22">
         <v>44734</v>
       </c>
@@ -15390,7 +15402,7 @@
       </c>
       <c r="O317" s="19"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="22">
         <v>44734</v>
       </c>
@@ -15435,7 +15447,7 @@
       </c>
       <c r="O318" s="19"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="22">
         <v>44734</v>
       </c>
@@ -15478,7 +15490,7 @@
       </c>
       <c r="O319" s="19"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="22">
         <v>44734</v>
       </c>
@@ -15523,7 +15535,7 @@
       </c>
       <c r="O320" s="19"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="22">
         <v>44734</v>
       </c>
@@ -15568,7 +15580,7 @@
       </c>
       <c r="O321" s="19"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="22">
         <v>44734</v>
       </c>
@@ -15613,7 +15625,7 @@
       </c>
       <c r="O322" s="19"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="22">
         <v>44734</v>
       </c>
@@ -15656,7 +15668,7 @@
       </c>
       <c r="O323" s="19"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="22">
         <v>44734</v>
       </c>
@@ -15701,7 +15713,7 @@
       </c>
       <c r="O324" s="19"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="22">
         <v>44734</v>
       </c>
@@ -15746,7 +15758,7 @@
       </c>
       <c r="O325" s="19"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="22">
         <v>44734</v>
       </c>
@@ -15791,7 +15803,7 @@
       </c>
       <c r="O326" s="19"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="22">
         <v>44736</v>
       </c>
@@ -15836,7 +15848,7 @@
       </c>
       <c r="O327" s="19"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="22">
         <v>44736</v>
       </c>
@@ -15881,7 +15893,7 @@
       </c>
       <c r="O328" s="19"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="22">
         <v>44736</v>
       </c>
@@ -15926,7 +15938,7 @@
       </c>
       <c r="O329" s="19"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="22">
         <v>44736</v>
       </c>
@@ -15971,7 +15983,7 @@
       </c>
       <c r="O330" s="19"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="22">
         <v>44736</v>
       </c>
@@ -16016,7 +16028,7 @@
       </c>
       <c r="O331" s="19"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="22">
         <v>44736</v>
       </c>
@@ -16061,7 +16073,7 @@
       </c>
       <c r="O332" s="19"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="22">
         <v>44736</v>
       </c>
@@ -16106,7 +16118,7 @@
       </c>
       <c r="O333" s="19"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="22">
         <v>44736</v>
       </c>
@@ -16151,7 +16163,7 @@
       </c>
       <c r="O334" s="19"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="22">
         <v>44736</v>
       </c>
@@ -16196,7 +16208,7 @@
       </c>
       <c r="O335" s="19"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="22">
         <v>44736</v>
       </c>
@@ -16241,7 +16253,7 @@
       </c>
       <c r="O336" s="19"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="22">
         <v>44736</v>
       </c>
@@ -16286,7 +16298,7 @@
       </c>
       <c r="O337" s="19"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="22">
         <v>44736</v>
       </c>
@@ -16331,7 +16343,7 @@
       </c>
       <c r="O338" s="19"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="22">
         <v>44736</v>
       </c>
@@ -16376,7 +16388,7 @@
       </c>
       <c r="O339" s="19"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="22">
         <v>44736</v>
       </c>
@@ -16421,7 +16433,7 @@
       </c>
       <c r="O340" s="19"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="22">
         <v>44736</v>
       </c>
@@ -16466,7 +16478,7 @@
       </c>
       <c r="O341" s="19"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="22">
         <v>44736</v>
       </c>
@@ -16511,7 +16523,7 @@
       </c>
       <c r="O342" s="19"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="22">
         <v>44736</v>
       </c>
@@ -16556,7 +16568,7 @@
       </c>
       <c r="O343" s="19"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="22">
         <v>44736</v>
       </c>
@@ -16601,7 +16613,7 @@
       </c>
       <c r="O344" s="19"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="22">
         <v>44736</v>
       </c>
@@ -16646,7 +16658,7 @@
       </c>
       <c r="O345" s="19"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="22">
         <v>44736</v>
       </c>
@@ -16691,7 +16703,7 @@
       </c>
       <c r="O346" s="19"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="22">
         <v>44736</v>
       </c>
@@ -16736,7 +16748,7 @@
       </c>
       <c r="O347" s="19"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="22">
         <v>44736</v>
       </c>
@@ -16781,7 +16793,7 @@
       </c>
       <c r="O348" s="19"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="22">
         <v>44736</v>
       </c>
@@ -16826,7 +16838,7 @@
       </c>
       <c r="O349" s="19"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="22">
         <v>44736</v>
       </c>
@@ -16871,7 +16883,7 @@
       </c>
       <c r="O350" s="19"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="22">
         <v>44736</v>
       </c>
@@ -16916,7 +16928,7 @@
       </c>
       <c r="O351" s="19"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="22">
         <v>44736</v>
       </c>
@@ -16961,7 +16973,7 @@
       </c>
       <c r="O352" s="19"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="22">
         <v>44736</v>
       </c>
@@ -17006,7 +17018,7 @@
       </c>
       <c r="O353" s="19"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="22">
         <v>44736</v>
       </c>
@@ -17051,7 +17063,7 @@
       </c>
       <c r="O354" s="19"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="22">
         <v>44739</v>
       </c>
@@ -17097,7 +17109,7 @@
       </c>
       <c r="O355" s="19"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="22">
         <v>44739</v>
       </c>
@@ -17143,7 +17155,7 @@
       </c>
       <c r="O356" s="19"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="22">
         <v>44739</v>
       </c>
@@ -17189,7 +17201,7 @@
       </c>
       <c r="O357" s="19"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="22">
         <v>44739</v>
       </c>
@@ -17235,7 +17247,7 @@
       </c>
       <c r="O358" s="19"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="22">
         <v>44739</v>
       </c>
@@ -17281,7 +17293,7 @@
       </c>
       <c r="O359" s="19"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="22">
         <v>44739</v>
       </c>
@@ -17327,7 +17339,7 @@
       </c>
       <c r="O360" s="19"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="22">
         <v>44739</v>
       </c>
@@ -17373,7 +17385,7 @@
       </c>
       <c r="O361" s="19"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="22">
         <v>44739</v>
       </c>
@@ -17419,7 +17431,7 @@
       </c>
       <c r="O362" s="19"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="22">
         <v>44739</v>
       </c>
@@ -17465,7 +17477,7 @@
       </c>
       <c r="O363" s="19"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="22">
         <v>44739</v>
       </c>
@@ -17511,7 +17523,7 @@
       </c>
       <c r="O364" s="19"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="22">
         <v>44739</v>
       </c>
@@ -17557,7 +17569,7 @@
       </c>
       <c r="O365" s="19"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="22">
         <v>44739</v>
       </c>
@@ -17603,7 +17615,7 @@
       </c>
       <c r="O366" s="19"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="22">
         <v>44739</v>
       </c>
@@ -17649,7 +17661,7 @@
       </c>
       <c r="O367" s="19"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="22">
         <v>44739</v>
       </c>
@@ -17695,7 +17707,7 @@
       </c>
       <c r="O368" s="19"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="22">
         <v>44739</v>
       </c>
@@ -17741,7 +17753,7 @@
       </c>
       <c r="O369" s="19"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="22">
         <v>44739</v>
       </c>
@@ -17787,7 +17799,7 @@
       </c>
       <c r="O370" s="19"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="22">
         <v>44739</v>
       </c>
@@ -17833,7 +17845,7 @@
       </c>
       <c r="O371" s="19"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="22">
         <v>44739</v>
       </c>
@@ -17879,7 +17891,7 @@
       </c>
       <c r="O372" s="19"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="22">
         <v>44739</v>
       </c>
@@ -17925,7 +17937,7 @@
       </c>
       <c r="O373" s="19"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="22">
         <v>44739</v>
       </c>
@@ -17971,7 +17983,7 @@
       </c>
       <c r="O374" s="19"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="22">
         <v>44739</v>
       </c>
@@ -18017,7 +18029,7 @@
       </c>
       <c r="O375" s="19"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="22">
         <v>44739</v>
       </c>
@@ -18063,7 +18075,7 @@
       </c>
       <c r="O376" s="19"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="22">
         <v>44739</v>
       </c>
@@ -18109,7 +18121,7 @@
       </c>
       <c r="O377" s="19"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="22">
         <v>44739</v>
       </c>
@@ -18155,7 +18167,7 @@
       </c>
       <c r="O378" s="19"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="22">
         <v>44739</v>
       </c>
@@ -18201,7 +18213,7 @@
       </c>
       <c r="O379" s="19"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="22">
         <v>44739</v>
       </c>
@@ -18247,7 +18259,7 @@
       </c>
       <c r="O380" s="19"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="22">
         <v>44739</v>
       </c>
@@ -18293,7 +18305,7 @@
       </c>
       <c r="O381" s="19"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="22">
         <v>44739</v>
       </c>
@@ -18339,7 +18351,7 @@
       </c>
       <c r="O382" s="19"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="22">
         <v>44741</v>
       </c>
@@ -18385,7 +18397,7 @@
       </c>
       <c r="O383" s="19"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="22">
         <v>44741</v>
       </c>
@@ -18431,7 +18443,7 @@
       </c>
       <c r="O384" s="19"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="22">
         <v>44741</v>
       </c>
@@ -18477,7 +18489,7 @@
       </c>
       <c r="O385" s="19"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="22">
         <v>44741</v>
       </c>
@@ -18523,7 +18535,7 @@
       </c>
       <c r="O386" s="19"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="22">
         <v>44741</v>
       </c>
@@ -18569,7 +18581,7 @@
       </c>
       <c r="O387" s="19"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="22">
         <v>44741</v>
       </c>
@@ -18615,7 +18627,7 @@
       </c>
       <c r="O388" s="19"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="22">
         <v>44741</v>
       </c>
@@ -18661,7 +18673,7 @@
       </c>
       <c r="O389" s="19"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="22">
         <v>44741</v>
       </c>
@@ -18707,7 +18719,7 @@
       </c>
       <c r="O390" s="19"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="22">
         <v>44743</v>
       </c>
@@ -18753,7 +18765,7 @@
       </c>
       <c r="O391" s="19"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="22">
         <v>44743</v>
       </c>
@@ -18799,7 +18811,7 @@
       </c>
       <c r="O392" s="19"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="22">
         <v>44743</v>
       </c>
@@ -18845,7 +18857,7 @@
       </c>
       <c r="O393" s="19"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="22">
         <v>44743</v>
       </c>
@@ -18891,7 +18903,7 @@
       </c>
       <c r="O394" s="19"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="22">
         <v>44743</v>
       </c>
@@ -18937,7 +18949,7 @@
       </c>
       <c r="O395" s="19"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="22">
         <v>44745</v>
       </c>
@@ -18983,7 +18995,7 @@
       </c>
       <c r="O396" s="19"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="22">
         <v>44745</v>
       </c>
@@ -19029,7 +19041,7 @@
       </c>
       <c r="O397" s="19"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="22">
         <v>44745</v>
       </c>
@@ -19075,7 +19087,7 @@
       </c>
       <c r="O398" s="19"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="22">
         <v>44745</v>
       </c>
@@ -19121,7 +19133,7 @@
       </c>
       <c r="O399" s="19"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="22">
         <v>44745</v>
       </c>
@@ -19167,7 +19179,7 @@
       </c>
       <c r="O400" s="19"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="19"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -19184,7 +19196,7 @@
       <c r="N401" s="19"/>
       <c r="O401" s="19"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="19"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -19201,7 +19213,7 @@
       <c r="N402" s="19"/>
       <c r="O402" s="19"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="19"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -19218,7 +19230,7 @@
       <c r="N403" s="19"/>
       <c r="O403" s="19"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="19"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -19235,7 +19247,7 @@
       <c r="N404" s="19"/>
       <c r="O404" s="19"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="19"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -19252,7 +19264,7 @@
       <c r="N405" s="19"/>
       <c r="O405" s="19"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="19"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -19269,7 +19281,7 @@
       <c r="N406" s="19"/>
       <c r="O406" s="19"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="19"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -19286,7 +19298,7 @@
       <c r="N407" s="19"/>
       <c r="O407" s="19"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="19"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -19303,7 +19315,7 @@
       <c r="N408" s="19"/>
       <c r="O408" s="19"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="19"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -19320,7 +19332,7 @@
       <c r="N409" s="19"/>
       <c r="O409" s="19"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="19"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -19337,7 +19349,7 @@
       <c r="N410" s="19"/>
       <c r="O410" s="19"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="19"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -19354,7 +19366,7 @@
       <c r="N411" s="19"/>
       <c r="O411" s="19"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="19"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -19371,7 +19383,7 @@
       <c r="N412" s="19"/>
       <c r="O412" s="19"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="19"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -19388,7 +19400,7 @@
       <c r="N413" s="19"/>
       <c r="O413" s="19"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="19"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -19405,7 +19417,7 @@
       <c r="N414" s="19"/>
       <c r="O414" s="19"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="19"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -19422,7 +19434,7 @@
       <c r="N415" s="19"/>
       <c r="O415" s="19"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="19"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -19439,7 +19451,7 @@
       <c r="N416" s="19"/>
       <c r="O416" s="19"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="19"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -19456,7 +19468,7 @@
       <c r="N417" s="19"/>
       <c r="O417" s="19"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="19"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -19473,7 +19485,7 @@
       <c r="N418" s="19"/>
       <c r="O418" s="19"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="19"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -19490,7 +19502,7 @@
       <c r="N419" s="19"/>
       <c r="O419" s="19"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="19"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -19507,7 +19519,7 @@
       <c r="N420" s="19"/>
       <c r="O420" s="19"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="19"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -19524,7 +19536,7 @@
       <c r="N421" s="19"/>
       <c r="O421" s="19"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="19"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -19541,7 +19553,7 @@
       <c r="N422" s="19"/>
       <c r="O422" s="19"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="19"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -19558,7 +19570,7 @@
       <c r="N423" s="19"/>
       <c r="O423" s="19"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="19"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -19575,7 +19587,7 @@
       <c r="N424" s="19"/>
       <c r="O424" s="19"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="19"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -19592,7 +19604,7 @@
       <c r="N425" s="19"/>
       <c r="O425" s="19"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="19"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -19609,7 +19621,7 @@
       <c r="N426" s="19"/>
       <c r="O426" s="19"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="19"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -19626,7 +19638,7 @@
       <c r="N427" s="19"/>
       <c r="O427" s="19"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="19"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -19643,7 +19655,7 @@
       <c r="N428" s="19"/>
       <c r="O428" s="19"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="19"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -19660,7 +19672,7 @@
       <c r="N429" s="19"/>
       <c r="O429" s="19"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="19"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -19677,7 +19689,7 @@
       <c r="N430" s="19"/>
       <c r="O430" s="19"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="19"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -19694,7 +19706,7 @@
       <c r="N431" s="19"/>
       <c r="O431" s="19"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="19"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -19711,7 +19723,7 @@
       <c r="N432" s="19"/>
       <c r="O432" s="19"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="19"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -19728,7 +19740,7 @@
       <c r="N433" s="19"/>
       <c r="O433" s="19"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="19"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -19745,7 +19757,7 @@
       <c r="N434" s="19"/>
       <c r="O434" s="19"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="19"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -19762,7 +19774,7 @@
       <c r="N435" s="19"/>
       <c r="O435" s="19"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -19779,7 +19791,7 @@
       <c r="N436" s="19"/>
       <c r="O436" s="19"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="19"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -19796,7 +19808,7 @@
       <c r="N437" s="19"/>
       <c r="O437" s="19"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="19"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -19813,7 +19825,7 @@
       <c r="N438" s="19"/>
       <c r="O438" s="19"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="19"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -19830,7 +19842,7 @@
       <c r="N439" s="19"/>
       <c r="O439" s="19"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="19"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -19847,7 +19859,7 @@
       <c r="N440" s="19"/>
       <c r="O440" s="19"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="19"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -19864,7 +19876,7 @@
       <c r="N441" s="19"/>
       <c r="O441" s="19"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="19"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -19881,7 +19893,7 @@
       <c r="N442" s="19"/>
       <c r="O442" s="19"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="19"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -19898,7 +19910,7 @@
       <c r="N443" s="19"/>
       <c r="O443" s="19"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="19"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -19915,7 +19927,7 @@
       <c r="N444" s="19"/>
       <c r="O444" s="19"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="19"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -19932,7 +19944,7 @@
       <c r="N445" s="19"/>
       <c r="O445" s="19"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="19"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -19949,7 +19961,7 @@
       <c r="N446" s="19"/>
       <c r="O446" s="19"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="19"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -19966,7 +19978,7 @@
       <c r="N447" s="19"/>
       <c r="O447" s="19"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="19"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -19983,7 +19995,7 @@
       <c r="N448" s="19"/>
       <c r="O448" s="19"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="19"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -20000,7 +20012,7 @@
       <c r="N449" s="19"/>
       <c r="O449" s="19"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="19"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -20017,7 +20029,7 @@
       <c r="N450" s="19"/>
       <c r="O450" s="19"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="19"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -20034,7 +20046,7 @@
       <c r="N451" s="19"/>
       <c r="O451" s="19"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="19"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -20051,7 +20063,7 @@
       <c r="N452" s="19"/>
       <c r="O452" s="19"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="19"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -20068,7 +20080,7 @@
       <c r="N453" s="19"/>
       <c r="O453" s="19"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="19"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -20085,7 +20097,7 @@
       <c r="N454" s="19"/>
       <c r="O454" s="19"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="19"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -20102,7 +20114,7 @@
       <c r="N455" s="19"/>
       <c r="O455" s="19"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="19"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -20119,7 +20131,7 @@
       <c r="N456" s="19"/>
       <c r="O456" s="19"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="19"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -20136,7 +20148,7 @@
       <c r="N457" s="19"/>
       <c r="O457" s="19"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="19"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -20153,7 +20165,7 @@
       <c r="N458" s="19"/>
       <c r="O458" s="19"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="19"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -20170,7 +20182,7 @@
       <c r="N459" s="19"/>
       <c r="O459" s="19"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="19"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -20187,7 +20199,7 @@
       <c r="N460" s="19"/>
       <c r="O460" s="19"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="19"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -20204,7 +20216,7 @@
       <c r="N461" s="19"/>
       <c r="O461" s="19"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="19"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -20221,7 +20233,7 @@
       <c r="N462" s="19"/>
       <c r="O462" s="19"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="19"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -20238,7 +20250,7 @@
       <c r="N463" s="19"/>
       <c r="O463" s="19"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="19"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
@@ -20255,7 +20267,7 @@
       <c r="N464" s="19"/>
       <c r="O464" s="19"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="19"/>
       <c r="B465" s="19"/>
       <c r="C465" s="19"/>
@@ -20272,7 +20284,7 @@
       <c r="N465" s="19"/>
       <c r="O465" s="19"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="19"/>
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
@@ -20289,7 +20301,7 @@
       <c r="N466" s="19"/>
       <c r="O466" s="19"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="19"/>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -20306,7 +20318,7 @@
       <c r="N467" s="19"/>
       <c r="O467" s="19"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="19"/>
       <c r="B468" s="19"/>
       <c r="C468" s="19"/>
@@ -20323,7 +20335,7 @@
       <c r="N468" s="19"/>
       <c r="O468" s="19"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="19"/>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -20340,7 +20352,7 @@
       <c r="N469" s="19"/>
       <c r="O469" s="19"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="19"/>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -20357,7 +20369,7 @@
       <c r="N470" s="19"/>
       <c r="O470" s="19"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="19"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
@@ -20374,7 +20386,7 @@
       <c r="N471" s="19"/>
       <c r="O471" s="19"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="19"/>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -20391,7 +20403,7 @@
       <c r="N472" s="19"/>
       <c r="O472" s="19"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="19"/>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -20408,7 +20420,7 @@
       <c r="N473" s="19"/>
       <c r="O473" s="19"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="19"/>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -20425,7 +20437,7 @@
       <c r="N474" s="19"/>
       <c r="O474" s="19"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="19"/>
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
@@ -20442,7 +20454,7 @@
       <c r="N475" s="19"/>
       <c r="O475" s="19"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="19"/>
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
@@ -20459,7 +20471,7 @@
       <c r="N476" s="19"/>
       <c r="O476" s="19"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="19"/>
       <c r="B477" s="19"/>
       <c r="C477" s="19"/>
@@ -20476,7 +20488,7 @@
       <c r="N477" s="19"/>
       <c r="O477" s="19"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="19"/>
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
@@ -20493,7 +20505,7 @@
       <c r="N478" s="19"/>
       <c r="O478" s="19"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="19"/>
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
@@ -20510,7 +20522,7 @@
       <c r="N479" s="19"/>
       <c r="O479" s="19"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="19"/>
       <c r="B480" s="19"/>
       <c r="C480" s="19"/>
@@ -20527,7 +20539,7 @@
       <c r="N480" s="19"/>
       <c r="O480" s="19"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="19"/>
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
@@ -20544,7 +20556,7 @@
       <c r="N481" s="19"/>
       <c r="O481" s="19"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="19"/>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -20561,7 +20573,7 @@
       <c r="N482" s="19"/>
       <c r="O482" s="19"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="19"/>
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
@@ -20578,7 +20590,7 @@
       <c r="N483" s="19"/>
       <c r="O483" s="19"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="19"/>
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
@@ -20595,7 +20607,7 @@
       <c r="N484" s="19"/>
       <c r="O484" s="19"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19"/>
@@ -20612,7 +20624,7 @@
       <c r="N485" s="19"/>
       <c r="O485" s="19"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="19"/>
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
@@ -20629,7 +20641,7 @@
       <c r="N486" s="19"/>
       <c r="O486" s="19"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="19"/>
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
@@ -20646,7 +20658,7 @@
       <c r="N487" s="19"/>
       <c r="O487" s="19"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="19"/>
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
@@ -20663,7 +20675,7 @@
       <c r="N488" s="19"/>
       <c r="O488" s="19"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="19"/>
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
@@ -20680,7 +20692,7 @@
       <c r="N489" s="19"/>
       <c r="O489" s="19"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="19"/>
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
@@ -20697,7 +20709,7 @@
       <c r="N490" s="19"/>
       <c r="O490" s="19"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="19"/>
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
@@ -20714,7 +20726,7 @@
       <c r="N491" s="19"/>
       <c r="O491" s="19"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="19"/>
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
@@ -20731,7 +20743,7 @@
       <c r="N492" s="19"/>
       <c r="O492" s="19"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="19"/>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -20748,7 +20760,7 @@
       <c r="N493" s="19"/>
       <c r="O493" s="19"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="19"/>
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
@@ -20765,7 +20777,7 @@
       <c r="N494" s="19"/>
       <c r="O494" s="19"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="19"/>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -20782,7 +20794,7 @@
       <c r="N495" s="19"/>
       <c r="O495" s="19"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="19"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
@@ -20799,7 +20811,7 @@
       <c r="N496" s="19"/>
       <c r="O496" s="19"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="19"/>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -20816,7 +20828,7 @@
       <c r="N497" s="19"/>
       <c r="O497" s="19"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="19"/>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -20833,7 +20845,7 @@
       <c r="N498" s="19"/>
       <c r="O498" s="19"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="19"/>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -20850,7 +20862,7 @@
       <c r="N499" s="19"/>
       <c r="O499" s="19"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="19"/>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -20867,7 +20879,7 @@
       <c r="N500" s="19"/>
       <c r="O500" s="19"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="19"/>
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
@@ -20884,7 +20896,7 @@
       <c r="N501" s="19"/>
       <c r="O501" s="19"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="19"/>
       <c r="B502" s="19"/>
       <c r="C502" s="19"/>
@@ -20901,7 +20913,7 @@
       <c r="N502" s="19"/>
       <c r="O502" s="19"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="19"/>
       <c r="B503" s="19"/>
       <c r="C503" s="19"/>
@@ -20918,7 +20930,7 @@
       <c r="N503" s="19"/>
       <c r="O503" s="19"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="19"/>
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
@@ -20935,7 +20947,7 @@
       <c r="N504" s="19"/>
       <c r="O504" s="19"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="19"/>
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
@@ -20952,7 +20964,7 @@
       <c r="N505" s="19"/>
       <c r="O505" s="19"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="19"/>
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
@@ -20969,7 +20981,7 @@
       <c r="N506" s="19"/>
       <c r="O506" s="19"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="19"/>
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
@@ -20986,7 +20998,7 @@
       <c r="N507" s="19"/>
       <c r="O507" s="19"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="19"/>
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
@@ -21003,7 +21015,7 @@
       <c r="N508" s="19"/>
       <c r="O508" s="19"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="19"/>
       <c r="B509" s="19"/>
       <c r="C509" s="19"/>
@@ -21020,7 +21032,7 @@
       <c r="N509" s="19"/>
       <c r="O509" s="19"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="19"/>
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
@@ -21037,7 +21049,7 @@
       <c r="N510" s="19"/>
       <c r="O510" s="19"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="19"/>
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
@@ -21054,7 +21066,7 @@
       <c r="N511" s="19"/>
       <c r="O511" s="19"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="19"/>
       <c r="B512" s="19"/>
       <c r="C512" s="19"/>
@@ -21071,7 +21083,7 @@
       <c r="N512" s="19"/>
       <c r="O512" s="19"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="19"/>
       <c r="B513" s="19"/>
       <c r="C513" s="19"/>
@@ -21088,7 +21100,7 @@
       <c r="N513" s="19"/>
       <c r="O513" s="19"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="19"/>
       <c r="B514" s="19"/>
       <c r="C514" s="19"/>
@@ -21105,7 +21117,7 @@
       <c r="N514" s="19"/>
       <c r="O514" s="19"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="19"/>
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
@@ -21122,7 +21134,7 @@
       <c r="N515" s="19"/>
       <c r="O515" s="19"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="19"/>
       <c r="B516" s="19"/>
       <c r="C516" s="19"/>
@@ -21139,7 +21151,7 @@
       <c r="N516" s="19"/>
       <c r="O516" s="19"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="19"/>
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
@@ -21156,7 +21168,7 @@
       <c r="N517" s="19"/>
       <c r="O517" s="19"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="19"/>
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
@@ -21173,7 +21185,7 @@
       <c r="N518" s="19"/>
       <c r="O518" s="19"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="19"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
@@ -21190,7 +21202,7 @@
       <c r="N519" s="19"/>
       <c r="O519" s="19"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="19"/>
       <c r="B520" s="19"/>
       <c r="C520" s="19"/>
@@ -21207,7 +21219,7 @@
       <c r="N520" s="19"/>
       <c r="O520" s="19"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="19"/>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -21224,7 +21236,7 @@
       <c r="N521" s="19"/>
       <c r="O521" s="19"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="19"/>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -21241,7 +21253,7 @@
       <c r="N522" s="19"/>
       <c r="O522" s="19"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="19"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
@@ -21258,7 +21270,7 @@
       <c r="N523" s="19"/>
       <c r="O523" s="19"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="19"/>
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
@@ -21275,7 +21287,7 @@
       <c r="N524" s="19"/>
       <c r="O524" s="19"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="19"/>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -21292,7 +21304,7 @@
       <c r="N525" s="19"/>
       <c r="O525" s="19"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="19"/>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -21309,7 +21321,7 @@
       <c r="N526" s="19"/>
       <c r="O526" s="19"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="19"/>
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
@@ -21326,7 +21338,7 @@
       <c r="N527" s="19"/>
       <c r="O527" s="19"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="19"/>
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
@@ -21343,7 +21355,7 @@
       <c r="N528" s="19"/>
       <c r="O528" s="19"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="19"/>
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
@@ -21360,7 +21372,7 @@
       <c r="N529" s="19"/>
       <c r="O529" s="19"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="19"/>
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
@@ -21377,7 +21389,7 @@
       <c r="N530" s="19"/>
       <c r="O530" s="19"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19"/>
@@ -21394,7 +21406,7 @@
       <c r="N531" s="19"/>
       <c r="O531" s="19"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="19"/>
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
@@ -21411,7 +21423,7 @@
       <c r="N532" s="19"/>
       <c r="O532" s="19"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="19"/>
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
@@ -21428,7 +21440,7 @@
       <c r="N533" s="19"/>
       <c r="O533" s="19"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
@@ -21445,7 +21457,7 @@
       <c r="N534" s="19"/>
       <c r="O534" s="19"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="19"/>
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
@@ -21462,7 +21474,7 @@
       <c r="N535" s="19"/>
       <c r="O535" s="19"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="19"/>
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
@@ -21479,7 +21491,7 @@
       <c r="N536" s="19"/>
       <c r="O536" s="19"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="19"/>
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
@@ -21496,7 +21508,7 @@
       <c r="N537" s="19"/>
       <c r="O537" s="19"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="19"/>
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
@@ -21513,7 +21525,7 @@
       <c r="N538" s="19"/>
       <c r="O538" s="19"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="19"/>
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
@@ -21530,7 +21542,7 @@
       <c r="N539" s="19"/>
       <c r="O539" s="19"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="19"/>
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
@@ -21547,7 +21559,7 @@
       <c r="N540" s="19"/>
       <c r="O540" s="19"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="19"/>
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
@@ -21564,7 +21576,7 @@
       <c r="N541" s="19"/>
       <c r="O541" s="19"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19"/>
@@ -21581,7 +21593,7 @@
       <c r="N542" s="19"/>
       <c r="O542" s="19"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="19"/>
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
@@ -21598,7 +21610,7 @@
       <c r="N543" s="19"/>
       <c r="O543" s="19"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="19"/>
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
@@ -21615,7 +21627,7 @@
       <c r="N544" s="19"/>
       <c r="O544" s="19"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
@@ -21632,7 +21644,7 @@
       <c r="N545" s="19"/>
       <c r="O545" s="19"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="19"/>
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
@@ -21649,7 +21661,7 @@
       <c r="N546" s="19"/>
       <c r="O546" s="19"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
@@ -21666,7 +21678,7 @@
       <c r="N547" s="19"/>
       <c r="O547" s="19"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="19"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -21683,7 +21695,7 @@
       <c r="N548" s="19"/>
       <c r="O548" s="19"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="19"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -21700,7 +21712,7 @@
       <c r="N549" s="19"/>
       <c r="O549" s="19"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="19"/>
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
@@ -21717,7 +21729,7 @@
       <c r="N550" s="19"/>
       <c r="O550" s="19"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
@@ -21734,7 +21746,7 @@
       <c r="N551" s="19"/>
       <c r="O551" s="19"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
@@ -21751,7 +21763,7 @@
       <c r="N552" s="19"/>
       <c r="O552" s="19"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="19"/>
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
@@ -21768,7 +21780,7 @@
       <c r="N553" s="19"/>
       <c r="O553" s="19"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19"/>
@@ -21785,7 +21797,7 @@
       <c r="N554" s="19"/>
       <c r="O554" s="19"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="19"/>
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
@@ -21802,7 +21814,7 @@
       <c r="N555" s="19"/>
       <c r="O555" s="19"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="19"/>
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
@@ -21819,7 +21831,7 @@
       <c r="N556" s="19"/>
       <c r="O556" s="19"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="19"/>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -21836,7 +21848,7 @@
       <c r="N557" s="19"/>
       <c r="O557" s="19"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="19"/>
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
@@ -21853,7 +21865,7 @@
       <c r="N558" s="19"/>
       <c r="O558" s="19"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19"/>
@@ -21870,7 +21882,7 @@
       <c r="N559" s="19"/>
       <c r="O559" s="19"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="19"/>
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
@@ -21887,7 +21899,7 @@
       <c r="N560" s="19"/>
       <c r="O560" s="19"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="19"/>
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
@@ -21904,7 +21916,7 @@
       <c r="N561" s="19"/>
       <c r="O561" s="19"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="19"/>
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
@@ -21921,7 +21933,7 @@
       <c r="N562" s="19"/>
       <c r="O562" s="19"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="19"/>
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
@@ -21938,7 +21950,7 @@
       <c r="N563" s="19"/>
       <c r="O563" s="19"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="19"/>
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
@@ -21955,7 +21967,7 @@
       <c r="N564" s="19"/>
       <c r="O564" s="19"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="19"/>
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
@@ -21972,7 +21984,7 @@
       <c r="N565" s="19"/>
       <c r="O565" s="19"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="19"/>
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
@@ -21989,7 +22001,7 @@
       <c r="N566" s="19"/>
       <c r="O566" s="19"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="19"/>
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
@@ -22006,7 +22018,7 @@
       <c r="N567" s="19"/>
       <c r="O567" s="19"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="19"/>
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
@@ -22023,7 +22035,7 @@
       <c r="N568" s="19"/>
       <c r="O568" s="19"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="19"/>
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
@@ -22040,7 +22052,7 @@
       <c r="N569" s="19"/>
       <c r="O569" s="19"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="19"/>
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
@@ -22057,7 +22069,7 @@
       <c r="N570" s="19"/>
       <c r="O570" s="19"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="19"/>
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
@@ -22074,7 +22086,7 @@
       <c r="N571" s="19"/>
       <c r="O571" s="19"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19"/>
@@ -22091,7 +22103,7 @@
       <c r="N572" s="19"/>
       <c r="O572" s="19"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19"/>
@@ -22108,7 +22120,7 @@
       <c r="N573" s="19"/>
       <c r="O573" s="19"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="19"/>
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
@@ -22125,7 +22137,7 @@
       <c r="N574" s="19"/>
       <c r="O574" s="19"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="19"/>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -22142,7 +22154,7 @@
       <c r="N575" s="19"/>
       <c r="O575" s="19"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="19"/>
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
@@ -22159,7 +22171,7 @@
       <c r="N576" s="19"/>
       <c r="O576" s="19"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
@@ -22176,7 +22188,7 @@
       <c r="N577" s="19"/>
       <c r="O577" s="19"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="19"/>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -22193,7 +22205,7 @@
       <c r="N578" s="19"/>
       <c r="O578" s="19"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="19"/>
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
@@ -22210,7 +22222,7 @@
       <c r="N579" s="19"/>
       <c r="O579" s="19"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19"/>
@@ -22227,7 +22239,7 @@
       <c r="N580" s="19"/>
       <c r="O580" s="19"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="19"/>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -22244,7 +22256,7 @@
       <c r="N581" s="19"/>
       <c r="O581" s="19"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="19"/>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -22261,7 +22273,7 @@
       <c r="N582" s="19"/>
       <c r="O582" s="19"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="19"/>
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
@@ -22278,7 +22290,7 @@
       <c r="N583" s="19"/>
       <c r="O583" s="19"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="19"/>
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
@@ -22295,7 +22307,7 @@
       <c r="N584" s="19"/>
       <c r="O584" s="19"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="19"/>
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
@@ -22312,7 +22324,7 @@
       <c r="N585" s="19"/>
       <c r="O585" s="19"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="19"/>
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
@@ -22329,7 +22341,7 @@
       <c r="N586" s="19"/>
       <c r="O586" s="19"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="19"/>
       <c r="B587" s="19"/>
       <c r="C587" s="19"/>
@@ -22346,7 +22358,7 @@
       <c r="N587" s="19"/>
       <c r="O587" s="19"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19"/>
@@ -22363,7 +22375,7 @@
       <c r="N588" s="19"/>
       <c r="O588" s="19"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="19"/>
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
@@ -22380,7 +22392,7 @@
       <c r="N589" s="19"/>
       <c r="O589" s="19"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19"/>
@@ -22397,7 +22409,7 @@
       <c r="N590" s="19"/>
       <c r="O590" s="19"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="19"/>
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
@@ -22414,7 +22426,7 @@
       <c r="N591" s="19"/>
       <c r="O591" s="19"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19"/>
@@ -22431,7 +22443,7 @@
       <c r="N592" s="19"/>
       <c r="O592" s="19"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="19"/>
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
@@ -22448,7 +22460,7 @@
       <c r="N593" s="19"/>
       <c r="O593" s="19"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="19"/>
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
@@ -22465,7 +22477,7 @@
       <c r="N594" s="19"/>
       <c r="O594" s="19"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="19"/>
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
@@ -22482,7 +22494,7 @@
       <c r="N595" s="19"/>
       <c r="O595" s="19"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19"/>
@@ -22499,7 +22511,7 @@
       <c r="N596" s="19"/>
       <c r="O596" s="19"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="19"/>
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
@@ -22516,7 +22528,7 @@
       <c r="N597" s="19"/>
       <c r="O597" s="19"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="19"/>
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
@@ -22533,7 +22545,7 @@
       <c r="N598" s="19"/>
       <c r="O598" s="19"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="19"/>
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
@@ -22550,7 +22562,7 @@
       <c r="N599" s="19"/>
       <c r="O599" s="19"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="19"/>
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
@@ -22567,7 +22579,7 @@
       <c r="N600" s="19"/>
       <c r="O600" s="19"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="19"/>
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
@@ -22584,7 +22596,7 @@
       <c r="N601" s="19"/>
       <c r="O601" s="19"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="19"/>
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
@@ -22601,7 +22613,7 @@
       <c r="N602" s="19"/>
       <c r="O602" s="19"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="19"/>
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
@@ -22618,7 +22630,7 @@
       <c r="N603" s="19"/>
       <c r="O603" s="19"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="19"/>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -22635,7 +22647,7 @@
       <c r="N604" s="19"/>
       <c r="O604" s="19"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="19"/>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -22652,7 +22664,7 @@
       <c r="N605" s="19"/>
       <c r="O605" s="19"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="19"/>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -22669,7 +22681,7 @@
       <c r="N606" s="19"/>
       <c r="O606" s="19"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="19"/>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -22686,7 +22698,7 @@
       <c r="N607" s="19"/>
       <c r="O607" s="19"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="19"/>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -22703,7 +22715,7 @@
       <c r="N608" s="19"/>
       <c r="O608" s="19"/>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19"/>
@@ -22720,7 +22732,7 @@
       <c r="N609" s="19"/>
       <c r="O609" s="19"/>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="19"/>
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
@@ -22737,7 +22749,7 @@
       <c r="N610" s="19"/>
       <c r="O610" s="19"/>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19"/>
@@ -22754,7 +22766,7 @@
       <c r="N611" s="19"/>
       <c r="O611" s="19"/>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="19"/>
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
@@ -22771,7 +22783,7 @@
       <c r="N612" s="19"/>
       <c r="O612" s="19"/>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19"/>
@@ -22788,7 +22800,7 @@
       <c r="N613" s="19"/>
       <c r="O613" s="19"/>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="19"/>
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
@@ -22805,7 +22817,7 @@
       <c r="N614" s="19"/>
       <c r="O614" s="19"/>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19"/>
@@ -22822,7 +22834,7 @@
       <c r="N615" s="19"/>
       <c r="O615" s="19"/>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="19"/>
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
@@ -22839,7 +22851,7 @@
       <c r="N616" s="19"/>
       <c r="O616" s="19"/>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19"/>
@@ -22856,7 +22868,7 @@
       <c r="N617" s="19"/>
       <c r="O617" s="19"/>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="19"/>
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
@@ -22873,7 +22885,7 @@
       <c r="N618" s="19"/>
       <c r="O618" s="19"/>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19"/>
@@ -22890,7 +22902,7 @@
       <c r="N619" s="19"/>
       <c r="O619" s="19"/>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19"/>
@@ -22907,7 +22919,7 @@
       <c r="N620" s="19"/>
       <c r="O620" s="19"/>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="19"/>
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
@@ -22924,7 +22936,7 @@
       <c r="N621" s="19"/>
       <c r="O621" s="19"/>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="19"/>
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
@@ -22941,7 +22953,7 @@
       <c r="N622" s="19"/>
       <c r="O622" s="19"/>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="19"/>
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
@@ -22958,7 +22970,7 @@
       <c r="N623" s="19"/>
       <c r="O623" s="19"/>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" s="19"/>
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
@@ -22975,7 +22987,7 @@
       <c r="N624" s="19"/>
       <c r="O624" s="19"/>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="19"/>
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
@@ -22992,7 +23004,7 @@
       <c r="N625" s="19"/>
       <c r="O625" s="19"/>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="19"/>
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
@@ -23009,7 +23021,7 @@
       <c r="N626" s="19"/>
       <c r="O626" s="19"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="19"/>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -23026,7 +23038,7 @@
       <c r="N627" s="19"/>
       <c r="O627" s="19"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="19"/>
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
@@ -23043,7 +23055,7 @@
       <c r="N628" s="19"/>
       <c r="O628" s="19"/>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="19"/>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -23060,7 +23072,7 @@
       <c r="N629" s="19"/>
       <c r="O629" s="19"/>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
@@ -23077,7 +23089,7 @@
       <c r="N630" s="19"/>
       <c r="O630" s="19"/>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="19"/>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -23094,7 +23106,7 @@
       <c r="N631" s="19"/>
       <c r="O631" s="19"/>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="19"/>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -23111,7 +23123,7 @@
       <c r="N632" s="19"/>
       <c r="O632" s="19"/>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="19"/>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -23128,7 +23140,7 @@
       <c r="N633" s="19"/>
       <c r="O633" s="19"/>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="19"/>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -23145,7 +23157,7 @@
       <c r="N634" s="19"/>
       <c r="O634" s="19"/>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="19"/>
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
@@ -23162,7 +23174,7 @@
       <c r="N635" s="19"/>
       <c r="O635" s="19"/>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="19"/>
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
@@ -23179,7 +23191,7 @@
       <c r="N636" s="19"/>
       <c r="O636" s="19"/>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="19"/>
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
@@ -23196,7 +23208,7 @@
       <c r="N637" s="19"/>
       <c r="O637" s="19"/>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="19"/>
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
@@ -23213,7 +23225,7 @@
       <c r="N638" s="19"/>
       <c r="O638" s="19"/>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19"/>
@@ -23230,7 +23242,7 @@
       <c r="N639" s="19"/>
       <c r="O639" s="19"/>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="19"/>
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
@@ -23247,7 +23259,7 @@
       <c r="N640" s="19"/>
       <c r="O640" s="19"/>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" s="19"/>
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
@@ -23264,7 +23276,7 @@
       <c r="N641" s="19"/>
       <c r="O641" s="19"/>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" s="19"/>
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
@@ -23281,7 +23293,7 @@
       <c r="N642" s="19"/>
       <c r="O642" s="19"/>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" s="19"/>
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
@@ -23298,7 +23310,7 @@
       <c r="N643" s="19"/>
       <c r="O643" s="19"/>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" s="19"/>
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
@@ -23315,7 +23327,7 @@
       <c r="N644" s="19"/>
       <c r="O644" s="19"/>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" s="19"/>
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
@@ -23332,7 +23344,7 @@
       <c r="N645" s="19"/>
       <c r="O645" s="19"/>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" s="19"/>
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
@@ -23349,7 +23361,7 @@
       <c r="N646" s="19"/>
       <c r="O646" s="19"/>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" s="19"/>
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
@@ -23366,7 +23378,7 @@
       <c r="N647" s="19"/>
       <c r="O647" s="19"/>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" s="19"/>
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
@@ -23383,7 +23395,7 @@
       <c r="N648" s="19"/>
       <c r="O648" s="19"/>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" s="19"/>
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
@@ -23400,7 +23412,7 @@
       <c r="N649" s="19"/>
       <c r="O649" s="19"/>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" s="19"/>
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
@@ -23417,7 +23429,7 @@
       <c r="N650" s="19"/>
       <c r="O650" s="19"/>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" s="19"/>
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
@@ -23434,7 +23446,7 @@
       <c r="N651" s="19"/>
       <c r="O651" s="19"/>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" s="19"/>
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
@@ -23451,7 +23463,7 @@
       <c r="N652" s="19"/>
       <c r="O652" s="19"/>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" s="19"/>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -23468,7 +23480,7 @@
       <c r="N653" s="19"/>
       <c r="O653" s="19"/>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" s="19"/>
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
@@ -23485,7 +23497,7 @@
       <c r="N654" s="19"/>
       <c r="O654" s="19"/>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" s="19"/>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -23502,7 +23514,7 @@
       <c r="N655" s="19"/>
       <c r="O655" s="19"/>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" s="19"/>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -23519,7 +23531,7 @@
       <c r="N656" s="19"/>
       <c r="O656" s="19"/>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" s="19"/>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -23536,7 +23548,7 @@
       <c r="N657" s="19"/>
       <c r="O657" s="19"/>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" s="19"/>
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
@@ -23553,7 +23565,7 @@
       <c r="N658" s="19"/>
       <c r="O658" s="19"/>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" s="19"/>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -23570,7 +23582,7 @@
       <c r="N659" s="19"/>
       <c r="O659" s="19"/>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
@@ -23587,7 +23599,7 @@
       <c r="N660" s="19"/>
       <c r="O660" s="19"/>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" s="19"/>
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
@@ -23604,7 +23616,7 @@
       <c r="N661" s="19"/>
       <c r="O661" s="19"/>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" s="19"/>
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
@@ -23621,7 +23633,7 @@
       <c r="N662" s="19"/>
       <c r="O662" s="19"/>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" s="19"/>
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
@@ -23638,7 +23650,7 @@
       <c r="N663" s="19"/>
       <c r="O663" s="19"/>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" s="19"/>
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
@@ -23655,7 +23667,7 @@
       <c r="N664" s="19"/>
       <c r="O664" s="19"/>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" s="19"/>
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
@@ -23672,7 +23684,7 @@
       <c r="N665" s="19"/>
       <c r="O665" s="19"/>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" s="19"/>
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
@@ -23689,7 +23701,7 @@
       <c r="N666" s="19"/>
       <c r="O666" s="19"/>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" s="19"/>
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
@@ -23706,7 +23718,7 @@
       <c r="N667" s="19"/>
       <c r="O667" s="19"/>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" s="19"/>
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
@@ -23723,7 +23735,7 @@
       <c r="N668" s="19"/>
       <c r="O668" s="19"/>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" s="19"/>
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
@@ -23740,7 +23752,7 @@
       <c r="N669" s="19"/>
       <c r="O669" s="19"/>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" s="19"/>
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
@@ -23757,7 +23769,7 @@
       <c r="N670" s="19"/>
       <c r="O670" s="19"/>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" s="19"/>
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
@@ -23774,7 +23786,7 @@
       <c r="N671" s="19"/>
       <c r="O671" s="19"/>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" s="19"/>
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
@@ -23791,7 +23803,7 @@
       <c r="N672" s="19"/>
       <c r="O672" s="19"/>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="19"/>
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
@@ -23808,7 +23820,7 @@
       <c r="N673" s="19"/>
       <c r="O673" s="19"/>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="19"/>
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
@@ -23825,7 +23837,7 @@
       <c r="N674" s="19"/>
       <c r="O674" s="19"/>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="19"/>
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
@@ -23842,7 +23854,7 @@
       <c r="N675" s="19"/>
       <c r="O675" s="19"/>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="19"/>
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
@@ -23859,7 +23871,7 @@
       <c r="N676" s="19"/>
       <c r="O676" s="19"/>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" s="19"/>
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
@@ -23876,7 +23888,7 @@
       <c r="N677" s="19"/>
       <c r="O677" s="19"/>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" s="19"/>
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
@@ -23893,7 +23905,7 @@
       <c r="N678" s="19"/>
       <c r="O678" s="19"/>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" s="19"/>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -23910,7 +23922,7 @@
       <c r="N679" s="19"/>
       <c r="O679" s="19"/>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" s="19"/>
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
@@ -23927,7 +23939,7 @@
       <c r="N680" s="19"/>
       <c r="O680" s="19"/>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" s="19"/>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -23944,7 +23956,7 @@
       <c r="N681" s="19"/>
       <c r="O681" s="19"/>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
@@ -23961,7 +23973,7 @@
       <c r="N682" s="19"/>
       <c r="O682" s="19"/>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" s="19"/>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -23978,7 +23990,7 @@
       <c r="N683" s="19"/>
       <c r="O683" s="19"/>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" s="19"/>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -23995,7 +24007,7 @@
       <c r="N684" s="19"/>
       <c r="O684" s="19"/>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" s="19"/>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -24012,7 +24024,7 @@
       <c r="N685" s="19"/>
       <c r="O685" s="19"/>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" s="19"/>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -24029,7 +24041,7 @@
       <c r="N686" s="19"/>
       <c r="O686" s="19"/>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" s="19"/>
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
@@ -24046,7 +24058,7 @@
       <c r="N687" s="19"/>
       <c r="O687" s="19"/>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" s="19"/>
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
@@ -24063,7 +24075,7 @@
       <c r="N688" s="19"/>
       <c r="O688" s="19"/>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" s="19"/>
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
@@ -24080,7 +24092,7 @@
       <c r="N689" s="19"/>
       <c r="O689" s="19"/>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" s="19"/>
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
@@ -24097,7 +24109,7 @@
       <c r="N690" s="19"/>
       <c r="O690" s="19"/>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" s="19"/>
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
@@ -24114,7 +24126,7 @@
       <c r="N691" s="19"/>
       <c r="O691" s="19"/>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" s="19"/>
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
@@ -24131,7 +24143,7 @@
       <c r="N692" s="19"/>
       <c r="O692" s="19"/>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" s="19"/>
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
@@ -24148,7 +24160,7 @@
       <c r="N693" s="19"/>
       <c r="O693" s="19"/>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" s="19"/>
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
@@ -24165,7 +24177,7 @@
       <c r="N694" s="19"/>
       <c r="O694" s="19"/>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" s="19"/>
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
@@ -24182,7 +24194,7 @@
       <c r="N695" s="19"/>
       <c r="O695" s="19"/>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="19"/>
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
@@ -24199,7 +24211,7 @@
       <c r="N696" s="19"/>
       <c r="O696" s="19"/>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="19"/>
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
@@ -24216,7 +24228,7 @@
       <c r="N697" s="19"/>
       <c r="O697" s="19"/>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="19"/>
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
@@ -24233,7 +24245,7 @@
       <c r="N698" s="19"/>
       <c r="O698" s="19"/>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="19"/>
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
@@ -24250,7 +24262,7 @@
       <c r="N699" s="19"/>
       <c r="O699" s="19"/>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="19"/>
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
@@ -24267,7 +24279,7 @@
       <c r="N700" s="19"/>
       <c r="O700" s="19"/>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="19"/>
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
@@ -24284,7 +24296,7 @@
       <c r="N701" s="19"/>
       <c r="O701" s="19"/>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" s="19"/>
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
@@ -24301,7 +24313,7 @@
       <c r="N702" s="19"/>
       <c r="O702" s="19"/>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" s="19"/>
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
@@ -24318,7 +24330,7 @@
       <c r="N703" s="19"/>
       <c r="O703" s="19"/>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" s="19"/>
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
@@ -24335,7 +24347,7 @@
       <c r="N704" s="19"/>
       <c r="O704" s="19"/>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" s="19"/>
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
@@ -24352,7 +24364,7 @@
       <c r="N705" s="19"/>
       <c r="O705" s="19"/>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" s="19"/>
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
@@ -24369,7 +24381,7 @@
       <c r="N706" s="19"/>
       <c r="O706" s="19"/>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" s="19"/>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -24386,7 +24398,7 @@
       <c r="N707" s="19"/>
       <c r="O707" s="19"/>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" s="19"/>
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
@@ -24403,7 +24415,7 @@
       <c r="N708" s="19"/>
       <c r="O708" s="19"/>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" s="19"/>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -24420,7 +24432,7 @@
       <c r="N709" s="19"/>
       <c r="O709" s="19"/>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" s="19"/>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -24437,7 +24449,7 @@
       <c r="N710" s="19"/>
       <c r="O710" s="19"/>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" s="19"/>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -24454,7 +24466,7 @@
       <c r="N711" s="19"/>
       <c r="O711" s="19"/>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" s="19"/>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -24471,7 +24483,7 @@
       <c r="N712" s="19"/>
       <c r="O712" s="19"/>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" s="19"/>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -24488,7 +24500,7 @@
       <c r="N713" s="19"/>
       <c r="O713" s="19"/>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
@@ -24505,7 +24517,7 @@
       <c r="N714" s="19"/>
       <c r="O714" s="19"/>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19"/>
@@ -24522,7 +24534,7 @@
       <c r="N715" s="19"/>
       <c r="O715" s="19"/>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" s="19"/>
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
@@ -24539,7 +24551,7 @@
       <c r="N716" s="19"/>
       <c r="O716" s="19"/>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" s="19"/>
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
@@ -24556,7 +24568,7 @@
       <c r="N717" s="19"/>
       <c r="O717" s="19"/>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" s="19"/>
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
@@ -24573,7 +24585,7 @@
       <c r="N718" s="19"/>
       <c r="O718" s="19"/>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" s="19"/>
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
@@ -24590,7 +24602,7 @@
       <c r="N719" s="19"/>
       <c r="O719" s="19"/>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720" s="19"/>
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
@@ -24607,7 +24619,7 @@
       <c r="N720" s="19"/>
       <c r="O720" s="19"/>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721" s="19"/>
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
@@ -24624,7 +24636,7 @@
       <c r="N721" s="19"/>
       <c r="O721" s="19"/>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722" s="19"/>
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
@@ -24641,7 +24653,7 @@
       <c r="N722" s="19"/>
       <c r="O722" s="19"/>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723" s="19"/>
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
@@ -24658,7 +24670,7 @@
       <c r="N723" s="19"/>
       <c r="O723" s="19"/>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724" s="19"/>
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
@@ -24675,7 +24687,7 @@
       <c r="N724" s="19"/>
       <c r="O724" s="19"/>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725" s="19"/>
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
@@ -24692,7 +24704,7 @@
       <c r="N725" s="19"/>
       <c r="O725" s="19"/>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726" s="19"/>
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
@@ -24709,7 +24721,7 @@
       <c r="N726" s="19"/>
       <c r="O726" s="19"/>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727" s="19"/>
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
@@ -24726,7 +24738,7 @@
       <c r="N727" s="19"/>
       <c r="O727" s="19"/>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728" s="19"/>
       <c r="B728" s="19"/>
       <c r="C728" s="19"/>
@@ -24743,7 +24755,7 @@
       <c r="N728" s="19"/>
       <c r="O728" s="19"/>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729" s="19"/>
       <c r="B729" s="19"/>
       <c r="C729" s="19"/>
@@ -24760,7 +24772,7 @@
       <c r="N729" s="19"/>
       <c r="O729" s="19"/>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730" s="19"/>
       <c r="B730" s="19"/>
       <c r="C730" s="19"/>
@@ -24777,7 +24789,7 @@
       <c r="N730" s="19"/>
       <c r="O730" s="19"/>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731" s="19"/>
       <c r="B731" s="19"/>
       <c r="C731" s="19"/>
@@ -24794,7 +24806,7 @@
       <c r="N731" s="19"/>
       <c r="O731" s="19"/>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732" s="19"/>
       <c r="B732" s="19"/>
       <c r="C732" s="19"/>
@@ -24811,7 +24823,7 @@
       <c r="N732" s="19"/>
       <c r="O732" s="19"/>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733" s="19"/>
       <c r="B733" s="19"/>
       <c r="C733" s="19"/>
@@ -24828,7 +24840,7 @@
       <c r="N733" s="19"/>
       <c r="O733" s="19"/>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734" s="19"/>
       <c r="B734" s="19"/>
       <c r="C734" s="19"/>
@@ -24845,7 +24857,7 @@
       <c r="N734" s="19"/>
       <c r="O734" s="19"/>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735" s="19"/>
       <c r="B735" s="19"/>
       <c r="C735" s="19"/>
@@ -24862,7 +24874,7 @@
       <c r="N735" s="19"/>
       <c r="O735" s="19"/>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736" s="19"/>
       <c r="B736" s="19"/>
       <c r="C736" s="19"/>
@@ -24879,7 +24891,7 @@
       <c r="N736" s="19"/>
       <c r="O736" s="19"/>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737" s="19"/>
       <c r="B737" s="19"/>
       <c r="C737" s="19"/>
@@ -24896,7 +24908,7 @@
       <c r="N737" s="19"/>
       <c r="O737" s="19"/>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A738" s="19"/>
       <c r="B738" s="19"/>
       <c r="C738" s="19"/>
@@ -24913,7 +24925,7 @@
       <c r="N738" s="19"/>
       <c r="O738" s="19"/>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19"/>
@@ -24930,7 +24942,7 @@
       <c r="N739" s="19"/>
       <c r="O739" s="19"/>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A740" s="19"/>
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
@@ -24947,7 +24959,7 @@
       <c r="N740" s="19"/>
       <c r="O740" s="19"/>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A741" s="19"/>
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
@@ -24964,7 +24976,7 @@
       <c r="N741" s="19"/>
       <c r="O741" s="19"/>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A742" s="19"/>
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
@@ -24981,7 +24993,7 @@
       <c r="N742" s="19"/>
       <c r="O742" s="19"/>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19"/>
@@ -24998,7 +25010,7 @@
       <c r="N743" s="19"/>
       <c r="O743" s="19"/>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19"/>
@@ -25015,7 +25027,7 @@
       <c r="N744" s="19"/>
       <c r="O744" s="19"/>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19"/>
@@ -25032,7 +25044,7 @@
       <c r="N745" s="19"/>
       <c r="O745" s="19"/>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19"/>
@@ -25049,7 +25061,7 @@
       <c r="N746" s="19"/>
       <c r="O746" s="19"/>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19"/>
@@ -25066,7 +25078,7 @@
       <c r="N747" s="19"/>
       <c r="O747" s="19"/>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19"/>
@@ -25083,7 +25095,7 @@
       <c r="N748" s="19"/>
       <c r="O748" s="19"/>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19"/>
@@ -25100,7 +25112,7 @@
       <c r="N749" s="19"/>
       <c r="O749" s="19"/>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19"/>
@@ -25117,7 +25129,7 @@
       <c r="N750" s="19"/>
       <c r="O750" s="19"/>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19"/>
@@ -25134,7 +25146,7 @@
       <c r="N751" s="19"/>
       <c r="O751" s="19"/>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A752" s="19"/>
       <c r="B752" s="19"/>
       <c r="C752" s="19"/>
@@ -25151,7 +25163,7 @@
       <c r="N752" s="19"/>
       <c r="O752" s="19"/>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A753" s="19"/>
       <c r="B753" s="19"/>
       <c r="C753" s="19"/>
@@ -25168,7 +25180,7 @@
       <c r="N753" s="19"/>
       <c r="O753" s="19"/>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A754" s="19"/>
       <c r="B754" s="19"/>
       <c r="C754" s="19"/>
@@ -25185,7 +25197,7 @@
       <c r="N754" s="19"/>
       <c r="O754" s="19"/>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A755" s="19"/>
       <c r="B755" s="19"/>
       <c r="C755" s="19"/>
@@ -25202,7 +25214,7 @@
       <c r="N755" s="19"/>
       <c r="O755" s="19"/>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A756" s="19"/>
       <c r="B756" s="19"/>
       <c r="C756" s="19"/>
@@ -25219,7 +25231,7 @@
       <c r="N756" s="19"/>
       <c r="O756" s="19"/>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A757" s="19"/>
       <c r="B757" s="19"/>
       <c r="C757" s="19"/>
@@ -25236,7 +25248,7 @@
       <c r="N757" s="19"/>
       <c r="O757" s="19"/>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A758" s="19"/>
       <c r="B758" s="19"/>
       <c r="C758" s="19"/>
@@ -25253,7 +25265,7 @@
       <c r="N758" s="19"/>
       <c r="O758" s="19"/>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A759" s="19"/>
       <c r="B759" s="19"/>
       <c r="C759" s="19"/>
@@ -25270,7 +25282,7 @@
       <c r="N759" s="19"/>
       <c r="O759" s="19"/>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A760" s="19"/>
       <c r="B760" s="19"/>
       <c r="C760" s="19"/>
@@ -25287,7 +25299,7 @@
       <c r="N760" s="19"/>
       <c r="O760" s="19"/>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A761" s="19"/>
       <c r="B761" s="19"/>
       <c r="C761" s="19"/>
@@ -25304,7 +25316,7 @@
       <c r="N761" s="19"/>
       <c r="O761" s="19"/>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A762" s="19"/>
       <c r="B762" s="19"/>
       <c r="C762" s="19"/>
@@ -25321,7 +25333,7 @@
       <c r="N762" s="19"/>
       <c r="O762" s="19"/>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A763" s="19"/>
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
@@ -25338,7 +25350,7 @@
       <c r="N763" s="19"/>
       <c r="O763" s="19"/>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A764" s="19"/>
       <c r="B764" s="19"/>
       <c r="C764" s="19"/>
@@ -25355,7 +25367,7 @@
       <c r="N764" s="19"/>
       <c r="O764" s="19"/>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A765" s="19"/>
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
@@ -25372,7 +25384,7 @@
       <c r="N765" s="19"/>
       <c r="O765" s="19"/>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A766" s="19"/>
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
@@ -25389,7 +25401,7 @@
       <c r="N766" s="19"/>
       <c r="O766" s="19"/>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A767" s="19"/>
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
@@ -25406,7 +25418,7 @@
       <c r="N767" s="19"/>
       <c r="O767" s="19"/>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A768" s="19"/>
       <c r="B768" s="19"/>
       <c r="C768" s="19"/>
@@ -25423,7 +25435,7 @@
       <c r="N768" s="19"/>
       <c r="O768" s="19"/>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769" s="19"/>
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
@@ -25440,7 +25452,7 @@
       <c r="N769" s="19"/>
       <c r="O769" s="19"/>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A770" s="19"/>
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
@@ -25457,7 +25469,7 @@
       <c r="N770" s="19"/>
       <c r="O770" s="19"/>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771" s="19"/>
       <c r="B771" s="19"/>
       <c r="C771" s="19"/>
@@ -25474,7 +25486,7 @@
       <c r="N771" s="19"/>
       <c r="O771" s="19"/>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A772" s="19"/>
       <c r="B772" s="19"/>
       <c r="C772" s="19"/>
@@ -25491,7 +25503,7 @@
       <c r="N772" s="19"/>
       <c r="O772" s="19"/>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773" s="19"/>
       <c r="B773" s="19"/>
       <c r="C773" s="19"/>
@@ -25508,7 +25520,7 @@
       <c r="N773" s="19"/>
       <c r="O773" s="19"/>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A774" s="19"/>
       <c r="B774" s="19"/>
       <c r="C774" s="19"/>
@@ -25525,7 +25537,7 @@
       <c r="N774" s="19"/>
       <c r="O774" s="19"/>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775" s="19"/>
       <c r="B775" s="19"/>
       <c r="C775" s="19"/>
@@ -25542,7 +25554,7 @@
       <c r="N775" s="19"/>
       <c r="O775" s="19"/>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776" s="19"/>
       <c r="B776" s="19"/>
       <c r="C776" s="19"/>
@@ -25559,7 +25571,7 @@
       <c r="N776" s="19"/>
       <c r="O776" s="19"/>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A777" s="19"/>
       <c r="B777" s="19"/>
       <c r="C777" s="19"/>
@@ -25576,7 +25588,7 @@
       <c r="N777" s="19"/>
       <c r="O777" s="19"/>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A778" s="19"/>
       <c r="B778" s="19"/>
       <c r="C778" s="19"/>
@@ -25593,7 +25605,7 @@
       <c r="N778" s="19"/>
       <c r="O778" s="19"/>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A779" s="19"/>
       <c r="B779" s="19"/>
       <c r="C779" s="19"/>
@@ -25610,7 +25622,7 @@
       <c r="N779" s="19"/>
       <c r="O779" s="19"/>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780" s="19"/>
       <c r="B780" s="19"/>
       <c r="C780" s="19"/>
@@ -25627,7 +25639,7 @@
       <c r="N780" s="19"/>
       <c r="O780" s="19"/>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A781" s="19"/>
       <c r="B781" s="19"/>
       <c r="C781" s="19"/>
@@ -25644,7 +25656,7 @@
       <c r="N781" s="19"/>
       <c r="O781" s="19"/>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A782" s="19"/>
       <c r="B782" s="19"/>
       <c r="C782" s="19"/>
@@ -25661,7 +25673,7 @@
       <c r="N782" s="19"/>
       <c r="O782" s="19"/>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A783" s="19"/>
       <c r="B783" s="19"/>
       <c r="C783" s="19"/>
@@ -25678,7 +25690,7 @@
       <c r="N783" s="19"/>
       <c r="O783" s="19"/>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A784" s="19"/>
       <c r="B784" s="19"/>
       <c r="C784" s="19"/>
@@ -25695,7 +25707,7 @@
       <c r="N784" s="19"/>
       <c r="O784" s="19"/>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A785" s="19"/>
       <c r="B785" s="19"/>
       <c r="C785" s="19"/>
@@ -25712,7 +25724,7 @@
       <c r="N785" s="19"/>
       <c r="O785" s="19"/>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A786" s="19"/>
       <c r="B786" s="19"/>
       <c r="C786" s="19"/>
@@ -25729,7 +25741,7 @@
       <c r="N786" s="19"/>
       <c r="O786" s="19"/>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A787" s="19"/>
       <c r="B787" s="19"/>
       <c r="C787" s="19"/>
@@ -25746,7 +25758,7 @@
       <c r="N787" s="19"/>
       <c r="O787" s="19"/>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A788" s="19"/>
       <c r="B788" s="19"/>
       <c r="C788" s="19"/>
@@ -25763,7 +25775,7 @@
       <c r="N788" s="19"/>
       <c r="O788" s="19"/>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A789" s="19"/>
       <c r="B789" s="19"/>
       <c r="C789" s="19"/>
@@ -25780,7 +25792,7 @@
       <c r="N789" s="19"/>
       <c r="O789" s="19"/>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A790" s="19"/>
       <c r="B790" s="19"/>
       <c r="C790" s="19"/>
@@ -25797,7 +25809,7 @@
       <c r="N790" s="19"/>
       <c r="O790" s="19"/>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A791" s="19"/>
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
@@ -25814,7 +25826,7 @@
       <c r="N791" s="19"/>
       <c r="O791" s="19"/>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A792" s="19"/>
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
@@ -25831,7 +25843,7 @@
       <c r="N792" s="19"/>
       <c r="O792" s="19"/>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A793" s="19"/>
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
@@ -25848,7 +25860,7 @@
       <c r="N793" s="19"/>
       <c r="O793" s="19"/>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A794" s="19"/>
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
@@ -25865,7 +25877,7 @@
       <c r="N794" s="19"/>
       <c r="O794" s="19"/>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A795" s="19"/>
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
@@ -25882,7 +25894,7 @@
       <c r="N795" s="19"/>
       <c r="O795" s="19"/>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A796" s="19"/>
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
@@ -25899,7 +25911,7 @@
       <c r="N796" s="19"/>
       <c r="O796" s="19"/>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A797" s="19"/>
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
@@ -25916,7 +25928,7 @@
       <c r="N797" s="19"/>
       <c r="O797" s="19"/>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A798" s="19"/>
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
@@ -25933,7 +25945,7 @@
       <c r="N798" s="19"/>
       <c r="O798" s="19"/>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A799" s="19"/>
       <c r="B799" s="19"/>
       <c r="C799" s="19"/>
@@ -25950,7 +25962,7 @@
       <c r="N799" s="19"/>
       <c r="O799" s="19"/>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A800" s="19"/>
       <c r="B800" s="19"/>
       <c r="C800" s="19"/>
@@ -25967,7 +25979,7 @@
       <c r="N800" s="19"/>
       <c r="O800" s="19"/>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A801" s="19"/>
       <c r="B801" s="19"/>
       <c r="C801" s="19"/>
@@ -25984,7 +25996,7 @@
       <c r="N801" s="19"/>
       <c r="O801" s="19"/>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A802" s="19"/>
       <c r="B802" s="19"/>
       <c r="C802" s="19"/>
@@ -26001,7 +26013,7 @@
       <c r="N802" s="19"/>
       <c r="O802" s="19"/>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A803" s="19"/>
       <c r="B803" s="19"/>
       <c r="C803" s="19"/>
@@ -26018,7 +26030,7 @@
       <c r="N803" s="19"/>
       <c r="O803" s="19"/>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A804" s="19"/>
       <c r="B804" s="19"/>
       <c r="C804" s="19"/>
@@ -26035,7 +26047,7 @@
       <c r="N804" s="19"/>
       <c r="O804" s="19"/>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A805" s="19"/>
       <c r="B805" s="19"/>
       <c r="C805" s="19"/>
@@ -26052,7 +26064,7 @@
       <c r="N805" s="19"/>
       <c r="O805" s="19"/>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A806" s="19"/>
       <c r="B806" s="19"/>
       <c r="C806" s="19"/>
@@ -26069,7 +26081,7 @@
       <c r="N806" s="19"/>
       <c r="O806" s="19"/>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A807" s="19"/>
       <c r="B807" s="19"/>
       <c r="C807" s="19"/>
@@ -26086,7 +26098,7 @@
       <c r="N807" s="19"/>
       <c r="O807" s="19"/>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A808" s="19"/>
       <c r="B808" s="19"/>
       <c r="C808" s="19"/>
@@ -26103,7 +26115,7 @@
       <c r="N808" s="19"/>
       <c r="O808" s="19"/>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A809" s="19"/>
       <c r="B809" s="19"/>
       <c r="C809" s="19"/>
@@ -26120,7 +26132,7 @@
       <c r="N809" s="19"/>
       <c r="O809" s="19"/>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A810" s="19"/>
       <c r="B810" s="19"/>
       <c r="C810" s="19"/>
@@ -26137,7 +26149,7 @@
       <c r="N810" s="19"/>
       <c r="O810" s="19"/>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A811" s="19"/>
       <c r="B811" s="19"/>
       <c r="C811" s="19"/>
@@ -26154,7 +26166,7 @@
       <c r="N811" s="19"/>
       <c r="O811" s="19"/>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A812" s="19"/>
       <c r="B812" s="19"/>
       <c r="C812" s="19"/>
@@ -26171,7 +26183,7 @@
       <c r="N812" s="19"/>
       <c r="O812" s="19"/>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A813" s="19"/>
       <c r="B813" s="19"/>
       <c r="C813" s="19"/>
@@ -26188,7 +26200,7 @@
       <c r="N813" s="19"/>
       <c r="O813" s="19"/>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A814" s="19"/>
       <c r="B814" s="19"/>
       <c r="C814" s="19"/>
@@ -26205,7 +26217,7 @@
       <c r="N814" s="19"/>
       <c r="O814" s="19"/>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A815" s="19"/>
       <c r="B815" s="19"/>
       <c r="C815" s="19"/>
@@ -26222,7 +26234,7 @@
       <c r="N815" s="19"/>
       <c r="O815" s="19"/>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A816" s="19"/>
       <c r="B816" s="19"/>
       <c r="C816" s="19"/>
@@ -26239,7 +26251,7 @@
       <c r="N816" s="19"/>
       <c r="O816" s="19"/>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A817" s="19"/>
       <c r="B817" s="19"/>
       <c r="C817" s="19"/>
@@ -26256,7 +26268,7 @@
       <c r="N817" s="19"/>
       <c r="O817" s="19"/>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A818" s="19"/>
       <c r="B818" s="19"/>
       <c r="C818" s="19"/>
@@ -26273,7 +26285,7 @@
       <c r="N818" s="19"/>
       <c r="O818" s="19"/>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A819" s="19"/>
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
@@ -26290,7 +26302,7 @@
       <c r="N819" s="19"/>
       <c r="O819" s="19"/>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A820" s="19"/>
       <c r="B820" s="19"/>
       <c r="C820" s="19"/>
@@ -26307,7 +26319,7 @@
       <c r="N820" s="19"/>
       <c r="O820" s="19"/>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A821" s="19"/>
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
@@ -26324,7 +26336,7 @@
       <c r="N821" s="19"/>
       <c r="O821" s="19"/>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A822" s="19"/>
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
@@ -26341,7 +26353,7 @@
       <c r="N822" s="19"/>
       <c r="O822" s="19"/>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A823" s="19"/>
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
@@ -26358,7 +26370,7 @@
       <c r="N823" s="19"/>
       <c r="O823" s="19"/>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A824" s="19"/>
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
@@ -26375,7 +26387,7 @@
       <c r="N824" s="19"/>
       <c r="O824" s="19"/>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A825" s="19"/>
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
@@ -26392,7 +26404,7 @@
       <c r="N825" s="19"/>
       <c r="O825" s="19"/>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A826" s="19"/>
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
@@ -26409,7 +26421,7 @@
       <c r="N826" s="19"/>
       <c r="O826" s="19"/>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A827" s="19"/>
       <c r="B827" s="19"/>
       <c r="C827" s="19"/>
@@ -26426,7 +26438,7 @@
       <c r="N827" s="19"/>
       <c r="O827" s="19"/>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A828" s="19"/>
       <c r="B828" s="19"/>
       <c r="C828" s="19"/>
@@ -26443,7 +26455,7 @@
       <c r="N828" s="19"/>
       <c r="O828" s="19"/>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A829" s="19"/>
       <c r="B829" s="19"/>
       <c r="C829" s="19"/>
@@ -26460,7 +26472,7 @@
       <c r="N829" s="19"/>
       <c r="O829" s="19"/>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A830" s="19"/>
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
@@ -26477,7 +26489,7 @@
       <c r="N830" s="19"/>
       <c r="O830" s="19"/>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A831" s="19"/>
       <c r="B831" s="19"/>
       <c r="C831" s="19"/>
@@ -26494,7 +26506,7 @@
       <c r="N831" s="19"/>
       <c r="O831" s="19"/>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A832" s="19"/>
       <c r="B832" s="19"/>
       <c r="C832" s="19"/>
@@ -26511,7 +26523,7 @@
       <c r="N832" s="19"/>
       <c r="O832" s="19"/>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A833" s="19"/>
       <c r="B833" s="19"/>
       <c r="C833" s="19"/>
@@ -26528,7 +26540,7 @@
       <c r="N833" s="19"/>
       <c r="O833" s="19"/>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A834" s="19"/>
       <c r="B834" s="19"/>
       <c r="C834" s="19"/>
@@ -26545,7 +26557,7 @@
       <c r="N834" s="19"/>
       <c r="O834" s="19"/>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A835" s="19"/>
       <c r="B835" s="19"/>
       <c r="C835" s="19"/>
@@ -26562,7 +26574,7 @@
       <c r="N835" s="19"/>
       <c r="O835" s="19"/>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A836" s="19"/>
       <c r="B836" s="19"/>
       <c r="C836" s="19"/>
@@ -26579,7 +26591,7 @@
       <c r="N836" s="19"/>
       <c r="O836" s="19"/>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A837" s="19"/>
       <c r="B837" s="19"/>
       <c r="C837" s="19"/>
@@ -26596,7 +26608,7 @@
       <c r="N837" s="19"/>
       <c r="O837" s="19"/>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A838" s="19"/>
       <c r="B838" s="19"/>
       <c r="C838" s="19"/>
@@ -26613,7 +26625,7 @@
       <c r="N838" s="19"/>
       <c r="O838" s="19"/>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A839" s="19"/>
       <c r="B839" s="19"/>
       <c r="C839" s="19"/>
@@ -26630,7 +26642,7 @@
       <c r="N839" s="19"/>
       <c r="O839" s="19"/>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A840" s="19"/>
       <c r="B840" s="19"/>
       <c r="C840" s="19"/>
@@ -26647,7 +26659,7 @@
       <c r="N840" s="19"/>
       <c r="O840" s="19"/>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A841" s="19"/>
       <c r="B841" s="19"/>
       <c r="C841" s="19"/>
@@ -26664,7 +26676,7 @@
       <c r="N841" s="19"/>
       <c r="O841" s="19"/>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A842" s="19"/>
       <c r="B842" s="19"/>
       <c r="C842" s="19"/>
@@ -26681,7 +26693,7 @@
       <c r="N842" s="19"/>
       <c r="O842" s="19"/>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A843" s="19"/>
       <c r="B843" s="19"/>
       <c r="C843" s="19"/>
@@ -26698,7 +26710,7 @@
       <c r="N843" s="19"/>
       <c r="O843" s="19"/>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A844" s="19"/>
       <c r="B844" s="19"/>
       <c r="C844" s="19"/>
@@ -26715,7 +26727,7 @@
       <c r="N844" s="19"/>
       <c r="O844" s="19"/>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A845" s="19"/>
       <c r="B845" s="19"/>
       <c r="C845" s="19"/>
@@ -26732,7 +26744,7 @@
       <c r="N845" s="19"/>
       <c r="O845" s="19"/>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A846" s="19"/>
       <c r="B846" s="19"/>
       <c r="C846" s="19"/>
@@ -26749,7 +26761,7 @@
       <c r="N846" s="19"/>
       <c r="O846" s="19"/>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A847" s="19"/>
       <c r="B847" s="19"/>
       <c r="C847" s="19"/>
@@ -26766,7 +26778,7 @@
       <c r="N847" s="19"/>
       <c r="O847" s="19"/>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A848" s="19"/>
       <c r="B848" s="19"/>
       <c r="C848" s="19"/>
@@ -26783,7 +26795,7 @@
       <c r="N848" s="19"/>
       <c r="O848" s="19"/>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A849" s="19"/>
       <c r="B849" s="19"/>
       <c r="C849" s="19"/>
@@ -26800,7 +26812,7 @@
       <c r="N849" s="19"/>
       <c r="O849" s="19"/>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A850" s="19"/>
       <c r="B850" s="19"/>
       <c r="C850" s="19"/>
@@ -26817,7 +26829,7 @@
       <c r="N850" s="19"/>
       <c r="O850" s="19"/>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A851" s="19"/>
       <c r="B851" s="19"/>
       <c r="C851" s="19"/>
@@ -26834,7 +26846,7 @@
       <c r="N851" s="19"/>
       <c r="O851" s="19"/>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A852" s="19"/>
       <c r="B852" s="19"/>
       <c r="C852" s="19"/>
@@ -26851,7 +26863,7 @@
       <c r="N852" s="19"/>
       <c r="O852" s="19"/>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A853" s="19"/>
       <c r="B853" s="19"/>
       <c r="C853" s="19"/>
@@ -26868,7 +26880,7 @@
       <c r="N853" s="19"/>
       <c r="O853" s="19"/>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A854" s="19"/>
       <c r="B854" s="19"/>
       <c r="C854" s="19"/>
@@ -26885,7 +26897,7 @@
       <c r="N854" s="19"/>
       <c r="O854" s="19"/>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A855" s="19"/>
       <c r="B855" s="19"/>
       <c r="C855" s="19"/>
@@ -26902,7 +26914,7 @@
       <c r="N855" s="19"/>
       <c r="O855" s="19"/>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A856" s="19"/>
       <c r="B856" s="19"/>
       <c r="C856" s="19"/>
@@ -26919,7 +26931,7 @@
       <c r="N856" s="19"/>
       <c r="O856" s="19"/>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A857" s="19"/>
       <c r="B857" s="19"/>
       <c r="C857" s="19"/>
@@ -26936,7 +26948,7 @@
       <c r="N857" s="19"/>
       <c r="O857" s="19"/>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A858" s="19"/>
       <c r="B858" s="19"/>
       <c r="C858" s="19"/>
@@ -26953,7 +26965,7 @@
       <c r="N858" s="19"/>
       <c r="O858" s="19"/>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A859" s="19"/>
       <c r="B859" s="19"/>
       <c r="C859" s="19"/>
@@ -26970,7 +26982,7 @@
       <c r="N859" s="19"/>
       <c r="O859" s="19"/>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A860" s="19"/>
       <c r="B860" s="19"/>
       <c r="C860" s="19"/>
@@ -26987,7 +26999,7 @@
       <c r="N860" s="19"/>
       <c r="O860" s="19"/>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A861" s="19"/>
       <c r="B861" s="19"/>
       <c r="C861" s="19"/>
@@ -27004,7 +27016,7 @@
       <c r="N861" s="19"/>
       <c r="O861" s="19"/>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A862" s="19"/>
       <c r="B862" s="19"/>
       <c r="C862" s="19"/>
@@ -27021,7 +27033,7 @@
       <c r="N862" s="19"/>
       <c r="O862" s="19"/>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A863" s="19"/>
       <c r="B863" s="19"/>
       <c r="C863" s="19"/>
@@ -27038,7 +27050,7 @@
       <c r="N863" s="19"/>
       <c r="O863" s="19"/>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A864" s="19"/>
       <c r="B864" s="19"/>
       <c r="C864" s="19"/>
@@ -27055,7 +27067,7 @@
       <c r="N864" s="19"/>
       <c r="O864" s="19"/>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A865" s="19"/>
       <c r="B865" s="19"/>
       <c r="C865" s="19"/>
@@ -27072,7 +27084,7 @@
       <c r="N865" s="19"/>
       <c r="O865" s="19"/>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A866" s="19"/>
       <c r="B866" s="19"/>
       <c r="C866" s="19"/>
@@ -27089,7 +27101,7 @@
       <c r="N866" s="19"/>
       <c r="O866" s="19"/>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A867" s="19"/>
       <c r="B867" s="19"/>
       <c r="C867" s="19"/>
@@ -27106,7 +27118,7 @@
       <c r="N867" s="19"/>
       <c r="O867" s="19"/>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A868" s="19"/>
       <c r="B868" s="19"/>
       <c r="C868" s="19"/>
@@ -27123,7 +27135,7 @@
       <c r="N868" s="19"/>
       <c r="O868" s="19"/>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A869" s="19"/>
       <c r="B869" s="19"/>
       <c r="C869" s="19"/>
@@ -27140,7 +27152,7 @@
       <c r="N869" s="19"/>
       <c r="O869" s="19"/>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A870" s="19"/>
       <c r="B870" s="19"/>
       <c r="C870" s="19"/>
@@ -27157,7 +27169,7 @@
       <c r="N870" s="19"/>
       <c r="O870" s="19"/>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A871" s="19"/>
       <c r="B871" s="19"/>
       <c r="C871" s="19"/>
@@ -27174,7 +27186,7 @@
       <c r="N871" s="19"/>
       <c r="O871" s="19"/>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A872" s="19"/>
       <c r="B872" s="19"/>
       <c r="C872" s="19"/>
@@ -27191,7 +27203,7 @@
       <c r="N872" s="19"/>
       <c r="O872" s="19"/>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A873" s="19"/>
       <c r="B873" s="19"/>
       <c r="C873" s="19"/>
@@ -27208,7 +27220,7 @@
       <c r="N873" s="19"/>
       <c r="O873" s="19"/>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A874" s="19"/>
       <c r="B874" s="19"/>
       <c r="C874" s="19"/>
@@ -27225,7 +27237,7 @@
       <c r="N874" s="19"/>
       <c r="O874" s="19"/>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A875" s="19"/>
       <c r="B875" s="19"/>
       <c r="C875" s="19"/>
@@ -27242,7 +27254,7 @@
       <c r="N875" s="19"/>
       <c r="O875" s="19"/>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A876" s="19"/>
       <c r="B876" s="19"/>
       <c r="C876" s="19"/>
@@ -27259,7 +27271,7 @@
       <c r="N876" s="19"/>
       <c r="O876" s="19"/>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A877" s="19"/>
       <c r="B877" s="19"/>
       <c r="C877" s="19"/>
@@ -27276,7 +27288,7 @@
       <c r="N877" s="19"/>
       <c r="O877" s="19"/>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A878" s="19"/>
       <c r="B878" s="19"/>
       <c r="C878" s="19"/>
@@ -27293,7 +27305,7 @@
       <c r="N878" s="19"/>
       <c r="O878" s="19"/>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A879" s="19"/>
       <c r="B879" s="19"/>
       <c r="C879" s="19"/>
@@ -27310,7 +27322,7 @@
       <c r="N879" s="19"/>
       <c r="O879" s="19"/>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A880" s="19"/>
       <c r="B880" s="19"/>
       <c r="C880" s="19"/>
@@ -27327,7 +27339,7 @@
       <c r="N880" s="19"/>
       <c r="O880" s="19"/>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A881" s="19"/>
       <c r="B881" s="19"/>
       <c r="C881" s="19"/>
@@ -27344,7 +27356,7 @@
       <c r="N881" s="19"/>
       <c r="O881" s="19"/>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A882" s="19"/>
       <c r="B882" s="19"/>
       <c r="C882" s="19"/>
@@ -27361,7 +27373,7 @@
       <c r="N882" s="19"/>
       <c r="O882" s="19"/>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A883" s="19"/>
       <c r="B883" s="19"/>
       <c r="C883" s="19"/>
@@ -27378,7 +27390,7 @@
       <c r="N883" s="19"/>
       <c r="O883" s="19"/>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A884" s="19"/>
       <c r="B884" s="19"/>
       <c r="C884" s="19"/>
@@ -27395,7 +27407,7 @@
       <c r="N884" s="19"/>
       <c r="O884" s="19"/>
     </row>
-    <row r="885" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A885" s="19"/>
       <c r="B885" s="19"/>
       <c r="C885" s="19"/>
@@ -27412,7 +27424,7 @@
       <c r="N885" s="19"/>
       <c r="O885" s="19"/>
     </row>
-    <row r="886" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A886" s="19"/>
       <c r="B886" s="19"/>
       <c r="C886" s="19"/>
@@ -27429,7 +27441,7 @@
       <c r="N886" s="19"/>
       <c r="O886" s="19"/>
     </row>
-    <row r="887" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A887" s="19"/>
       <c r="B887" s="19"/>
       <c r="C887" s="19"/>
@@ -27446,7 +27458,7 @@
       <c r="N887" s="19"/>
       <c r="O887" s="19"/>
     </row>
-    <row r="888" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A888" s="19"/>
       <c r="B888" s="19"/>
       <c r="C888" s="19"/>
@@ -27463,7 +27475,7 @@
       <c r="N888" s="19"/>
       <c r="O888" s="19"/>
     </row>
-    <row r="889" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A889" s="19"/>
       <c r="B889" s="19"/>
       <c r="C889" s="19"/>
@@ -27480,7 +27492,7 @@
       <c r="N889" s="19"/>
       <c r="O889" s="19"/>
     </row>
-    <row r="890" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A890" s="19"/>
       <c r="B890" s="19"/>
       <c r="C890" s="19"/>
@@ -27497,7 +27509,7 @@
       <c r="N890" s="19"/>
       <c r="O890" s="19"/>
     </row>
-    <row r="891" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A891" s="19"/>
       <c r="B891" s="19"/>
       <c r="C891" s="19"/>
@@ -27514,7 +27526,7 @@
       <c r="N891" s="19"/>
       <c r="O891" s="19"/>
     </row>
-    <row r="892" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A892" s="19"/>
       <c r="B892" s="19"/>
       <c r="C892" s="19"/>
@@ -27531,7 +27543,7 @@
       <c r="N892" s="19"/>
       <c r="O892" s="19"/>
     </row>
-    <row r="893" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A893" s="19"/>
       <c r="B893" s="19"/>
       <c r="C893" s="19"/>
@@ -27548,7 +27560,7 @@
       <c r="N893" s="19"/>
       <c r="O893" s="19"/>
     </row>
-    <row r="894" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A894" s="19"/>
       <c r="B894" s="19"/>
       <c r="C894" s="19"/>
@@ -27565,7 +27577,7 @@
       <c r="N894" s="19"/>
       <c r="O894" s="19"/>
     </row>
-    <row r="895" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A895" s="19"/>
       <c r="B895" s="19"/>
       <c r="C895" s="19"/>
@@ -27582,7 +27594,7 @@
       <c r="N895" s="19"/>
       <c r="O895" s="19"/>
     </row>
-    <row r="896" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A896" s="19"/>
       <c r="B896" s="19"/>
       <c r="C896" s="19"/>
@@ -27599,7 +27611,7 @@
       <c r="N896" s="19"/>
       <c r="O896" s="19"/>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A897" s="19"/>
       <c r="B897" s="19"/>
       <c r="C897" s="19"/>
@@ -27616,7 +27628,7 @@
       <c r="N897" s="19"/>
       <c r="O897" s="19"/>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A898" s="19"/>
       <c r="B898" s="19"/>
       <c r="C898" s="19"/>
@@ -27633,7 +27645,7 @@
       <c r="N898" s="19"/>
       <c r="O898" s="19"/>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A899" s="19"/>
       <c r="B899" s="19"/>
       <c r="C899" s="19"/>
@@ -27650,7 +27662,7 @@
       <c r="N899" s="19"/>
       <c r="O899" s="19"/>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A900" s="19"/>
       <c r="B900" s="19"/>
       <c r="C900" s="19"/>
@@ -27667,7 +27679,7 @@
       <c r="N900" s="19"/>
       <c r="O900" s="19"/>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A901" s="19"/>
       <c r="B901" s="19"/>
       <c r="C901" s="19"/>
@@ -27684,7 +27696,7 @@
       <c r="N901" s="19"/>
       <c r="O901" s="19"/>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A902" s="19"/>
       <c r="B902" s="19"/>
       <c r="C902" s="19"/>
@@ -27701,7 +27713,7 @@
       <c r="N902" s="19"/>
       <c r="O902" s="19"/>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A903" s="19"/>
       <c r="B903" s="19"/>
       <c r="C903" s="19"/>
@@ -27718,7 +27730,7 @@
       <c r="N903" s="19"/>
       <c r="O903" s="19"/>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A904" s="19"/>
       <c r="B904" s="19"/>
       <c r="C904" s="19"/>
@@ -27735,7 +27747,7 @@
       <c r="N904" s="19"/>
       <c r="O904" s="19"/>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A905" s="19"/>
       <c r="B905" s="19"/>
       <c r="C905" s="19"/>
@@ -27752,7 +27764,7 @@
       <c r="N905" s="19"/>
       <c r="O905" s="19"/>
     </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A906" s="19"/>
       <c r="B906" s="19"/>
       <c r="C906" s="19"/>
@@ -27769,7 +27781,7 @@
       <c r="N906" s="19"/>
       <c r="O906" s="19"/>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A907" s="19"/>
       <c r="B907" s="19"/>
       <c r="C907" s="19"/>
@@ -27786,7 +27798,7 @@
       <c r="N907" s="19"/>
       <c r="O907" s="19"/>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A908" s="19"/>
       <c r="B908" s="19"/>
       <c r="C908" s="19"/>
@@ -27803,7 +27815,7 @@
       <c r="N908" s="19"/>
       <c r="O908" s="19"/>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A909" s="19"/>
       <c r="B909" s="19"/>
       <c r="C909" s="19"/>
@@ -27820,7 +27832,7 @@
       <c r="N909" s="19"/>
       <c r="O909" s="19"/>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A910" s="19"/>
       <c r="B910" s="19"/>
       <c r="C910" s="19"/>
@@ -27837,7 +27849,7 @@
       <c r="N910" s="19"/>
       <c r="O910" s="19"/>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A911" s="19"/>
       <c r="B911" s="19"/>
       <c r="C911" s="19"/>
@@ -27854,7 +27866,7 @@
       <c r="N911" s="19"/>
       <c r="O911" s="19"/>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A912" s="19"/>
       <c r="B912" s="19"/>
       <c r="C912" s="19"/>
@@ -27871,7 +27883,7 @@
       <c r="N912" s="19"/>
       <c r="O912" s="19"/>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A913" s="19"/>
       <c r="B913" s="19"/>
       <c r="C913" s="19"/>
@@ -27888,7 +27900,7 @@
       <c r="N913" s="19"/>
       <c r="O913" s="19"/>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A914" s="19"/>
       <c r="B914" s="19"/>
       <c r="C914" s="19"/>
@@ -27905,7 +27917,7 @@
       <c r="N914" s="19"/>
       <c r="O914" s="19"/>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A915" s="19"/>
       <c r="B915" s="19"/>
       <c r="C915" s="19"/>
@@ -27922,7 +27934,7 @@
       <c r="N915" s="19"/>
       <c r="O915" s="19"/>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A916" s="19"/>
       <c r="B916" s="19"/>
       <c r="C916" s="19"/>
@@ -27939,7 +27951,7 @@
       <c r="N916" s="19"/>
       <c r="O916" s="19"/>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A917" s="19"/>
       <c r="B917" s="19"/>
       <c r="C917" s="19"/>
@@ -27956,7 +27968,7 @@
       <c r="N917" s="19"/>
       <c r="O917" s="19"/>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A918" s="19"/>
       <c r="B918" s="19"/>
       <c r="C918" s="19"/>
@@ -27973,7 +27985,7 @@
       <c r="N918" s="19"/>
       <c r="O918" s="19"/>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A919" s="19"/>
       <c r="B919" s="19"/>
       <c r="C919" s="19"/>
@@ -27990,7 +28002,7 @@
       <c r="N919" s="19"/>
       <c r="O919" s="19"/>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A920" s="19"/>
       <c r="B920" s="19"/>
       <c r="C920" s="19"/>
@@ -28007,7 +28019,7 @@
       <c r="N920" s="19"/>
       <c r="O920" s="19"/>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A921" s="19"/>
       <c r="B921" s="19"/>
       <c r="C921" s="19"/>
@@ -28024,7 +28036,7 @@
       <c r="N921" s="19"/>
       <c r="O921" s="19"/>
     </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A922" s="19"/>
       <c r="B922" s="19"/>
       <c r="C922" s="19"/>
@@ -28041,7 +28053,7 @@
       <c r="N922" s="19"/>
       <c r="O922" s="19"/>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A923" s="19"/>
       <c r="B923" s="19"/>
       <c r="C923" s="19"/>
@@ -28058,7 +28070,7 @@
       <c r="N923" s="19"/>
       <c r="O923" s="19"/>
     </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A924" s="19"/>
       <c r="B924" s="19"/>
       <c r="C924" s="19"/>
@@ -28075,7 +28087,7 @@
       <c r="N924" s="19"/>
       <c r="O924" s="19"/>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A925" s="19"/>
       <c r="B925" s="19"/>
       <c r="C925" s="19"/>
@@ -28092,7 +28104,7 @@
       <c r="N925" s="19"/>
       <c r="O925" s="19"/>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A926" s="19"/>
       <c r="B926" s="19"/>
       <c r="C926" s="19"/>
@@ -28109,7 +28121,7 @@
       <c r="N926" s="19"/>
       <c r="O926" s="19"/>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A927" s="19"/>
       <c r="B927" s="19"/>
       <c r="C927" s="19"/>
@@ -28126,7 +28138,7 @@
       <c r="N927" s="19"/>
       <c r="O927" s="19"/>
     </row>
-    <row r="928" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A928" s="19"/>
       <c r="B928" s="19"/>
       <c r="C928" s="19"/>
@@ -28143,7 +28155,7 @@
       <c r="N928" s="19"/>
       <c r="O928" s="19"/>
     </row>
-    <row r="929" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A929" s="19"/>
       <c r="B929" s="19"/>
       <c r="C929" s="19"/>
@@ -28160,7 +28172,7 @@
       <c r="N929" s="19"/>
       <c r="O929" s="19"/>
     </row>
-    <row r="930" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A930" s="19"/>
       <c r="B930" s="19"/>
       <c r="C930" s="19"/>
@@ -28177,7 +28189,7 @@
       <c r="N930" s="19"/>
       <c r="O930" s="19"/>
     </row>
-    <row r="931" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A931" s="19"/>
       <c r="B931" s="19"/>
       <c r="C931" s="19"/>
@@ -28194,7 +28206,7 @@
       <c r="N931" s="19"/>
       <c r="O931" s="19"/>
     </row>
-    <row r="932" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A932" s="19"/>
       <c r="B932" s="19"/>
       <c r="C932" s="19"/>
@@ -28211,7 +28223,7 @@
       <c r="N932" s="19"/>
       <c r="O932" s="19"/>
     </row>
-    <row r="933" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A933" s="19"/>
       <c r="B933" s="19"/>
       <c r="C933" s="19"/>
@@ -28228,7 +28240,7 @@
       <c r="N933" s="19"/>
       <c r="O933" s="19"/>
     </row>
-    <row r="934" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A934" s="19"/>
       <c r="B934" s="19"/>
       <c r="C934" s="19"/>
@@ -28245,7 +28257,7 @@
       <c r="N934" s="19"/>
       <c r="O934" s="19"/>
     </row>
-    <row r="935" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A935" s="19"/>
       <c r="B935" s="19"/>
       <c r="C935" s="19"/>
@@ -28262,7 +28274,7 @@
       <c r="N935" s="19"/>
       <c r="O935" s="19"/>
     </row>
-    <row r="936" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A936" s="19"/>
       <c r="B936" s="19"/>
       <c r="C936" s="19"/>
@@ -28279,7 +28291,7 @@
       <c r="N936" s="19"/>
       <c r="O936" s="19"/>
     </row>
-    <row r="937" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A937" s="19"/>
       <c r="B937" s="19"/>
       <c r="C937" s="19"/>
@@ -28296,7 +28308,7 @@
       <c r="N937" s="19"/>
       <c r="O937" s="19"/>
     </row>
-    <row r="938" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A938" s="19"/>
       <c r="B938" s="19"/>
       <c r="C938" s="19"/>
@@ -28313,7 +28325,7 @@
       <c r="N938" s="19"/>
       <c r="O938" s="19"/>
     </row>
-    <row r="939" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A939" s="19"/>
       <c r="B939" s="19"/>
       <c r="C939" s="19"/>
@@ -28330,143 +28342,143 @@
       <c r="N939" s="19"/>
       <c r="O939" s="19"/>
     </row>
-    <row r="940" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A940" s="24"/>
     </row>
-    <row r="941" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A941" s="24"/>
     </row>
-    <row r="942" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A942" s="24"/>
     </row>
-    <row r="943" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A943" s="24"/>
     </row>
-    <row r="944" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A944" s="24"/>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="24"/>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="24"/>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="24"/>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="24"/>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="24"/>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="24"/>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="24"/>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="24"/>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="24"/>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="24"/>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="24"/>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="24"/>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="24"/>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="24"/>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="24"/>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="24"/>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="24"/>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="24"/>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="24"/>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="24"/>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="24"/>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="24"/>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="24"/>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="24"/>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="24"/>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="24"/>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="24"/>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="24"/>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="24"/>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="24"/>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="24"/>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="24"/>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="24"/>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="24"/>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="24"/>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="24"/>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="24"/>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="24"/>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="24"/>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P986">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P986">
     <sortCondition ref="A2:A986"/>
     <sortCondition ref="C2:C986"/>
   </sortState>
@@ -28484,19 +28496,19 @@
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="20.08203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="12"/>
-    <col min="5" max="5" width="17.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="41.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="42.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="10.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -28520,7 +28532,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
@@ -28540,7 +28552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>116</v>
       </c>
@@ -28560,7 +28572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
@@ -28580,7 +28592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>116</v>
       </c>
@@ -28600,7 +28612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>116</v>
       </c>
@@ -28617,7 +28629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>116</v>
       </c>
@@ -28637,7 +28649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>116</v>
       </c>
@@ -28648,7 +28660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>116</v>
       </c>
@@ -28668,7 +28680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>116</v>
       </c>
@@ -28688,7 +28700,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>116</v>
       </c>
@@ -28708,7 +28720,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>116</v>
       </c>
@@ -28728,7 +28740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>116</v>
       </c>
@@ -28745,7 +28757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>116</v>
       </c>
@@ -28765,7 +28777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>116</v>
       </c>
@@ -28785,7 +28797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>116</v>
       </c>
@@ -28805,7 +28817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>116</v>
       </c>
@@ -28825,7 +28837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>116</v>
       </c>
@@ -28845,7 +28857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>116</v>
       </c>
@@ -28862,7 +28874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>116</v>
       </c>
@@ -28879,7 +28891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>116</v>
       </c>
@@ -28896,7 +28908,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>116</v>
       </c>
@@ -28916,7 +28928,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>116</v>
       </c>
@@ -28936,7 +28948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>116</v>
       </c>
@@ -28959,7 +28971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>116</v>
       </c>
@@ -28977,7 +28989,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>171</v>
       </c>
@@ -28998,7 +29010,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>171</v>
       </c>
@@ -29016,7 +29028,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>171</v>
       </c>
@@ -29034,7 +29046,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>171</v>
       </c>
@@ -29052,7 +29064,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>171</v>
       </c>
@@ -29070,7 +29082,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>171</v>
       </c>
@@ -29088,7 +29100,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>171</v>
       </c>
@@ -29106,7 +29118,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>171</v>
       </c>
@@ -29126,7 +29138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>171</v>
       </c>
@@ -29147,7 +29159,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>171</v>
       </c>
@@ -29167,7 +29179,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>171</v>
       </c>
@@ -29187,7 +29199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>171</v>
       </c>
@@ -29204,7 +29216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
@@ -29221,15 +29233,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C27C2BB6D3449146994A382E4B983F24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3916ea7ee4cb71b83dbe8cee805c736a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ea4a38b-8811-4417-ad95-e83ecafd41d9" xmlns:ns4="8d30a389-4d56-4429-bc7f-f48221d5bec2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fd03811884ea603ed2e0d0d5adcc7f6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ea4a38b-8811-4417-ad95-e83ecafd41d9"/>
@@ -29458,6 +29461,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C69716-2B2D-4531-8CF9-E2A8C10FD6A8}">
   <ds:schemaRefs>
@@ -29476,14 +29488,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A43BAF-CBAB-469A-BF3E-6E96A679D328}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29500,4 +29504,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>